--- a/NP_EX_3_Calls.xlsx
+++ b/NP_EX_3_Calls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\Fall 2020\Cis 13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\School CS\CIS 26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58F5C56-296D-4714-B789-A64E7A7EA8A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74559BF-81F1-4345-9291-769CE174BDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="4" r:id="rId1"/>
@@ -3621,41 +3621,6 @@
     <xf numFmtId="1" fontId="1" fillId="10" borderId="8" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3673,6 +3638,41 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -4328,7 +4328,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4354,7 +4354,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="8">
-        <v>44145</v>
+        <v>44479</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31" x14ac:dyDescent="0.35">
@@ -4375,8 +4375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M515"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H501" sqref="H501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4408,11 +4408,11 @@
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="E4" s="10" t="s">
         <v>31</v>
       </c>
@@ -4470,7 +4470,7 @@
         <f>ROUNDUP((I5-G5)*24*60,0)</f>
         <v>21</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="57">
         <f>SUM($J$5:J5)</f>
         <v>21</v>
       </c>
@@ -4512,7 +4512,7 @@
         <f t="shared" ref="J6:J69" si="1">ROUNDUP((I6-G6)*24*60,0)</f>
         <v>28</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="58">
         <f>SUM($J$5:J6)</f>
         <v>49</v>
       </c>
@@ -4556,7 +4556,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="57">
         <f>SUM($J$5:J7)</f>
         <v>57</v>
       </c>
@@ -4600,7 +4600,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="58">
         <f>SUM($J$5:J8)</f>
         <v>68</v>
       </c>
@@ -4644,7 +4644,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="57">
         <f>SUM($J$5:J9)</f>
         <v>82</v>
       </c>
@@ -4679,7 +4679,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="58">
         <f>SUM($J$5:J10)</f>
         <v>85</v>
       </c>
@@ -4693,11 +4693,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
       <c r="E11" s="30" t="s">
         <v>161</v>
       </c>
@@ -4718,7 +4718,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="57">
         <f>SUM($J$5:J11)</f>
         <v>99</v>
       </c>
@@ -4762,7 +4762,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="58">
         <f>SUM($J$5:J12)</f>
         <v>108</v>
       </c>
@@ -4806,7 +4806,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K13" s="68">
+      <c r="K13" s="57">
         <f>SUM($J$5:J13)</f>
         <v>126</v>
       </c>
@@ -4850,7 +4850,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="58">
         <f>SUM($J$5:J14)</f>
         <v>142</v>
       </c>
@@ -4894,7 +4894,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K15" s="68">
+      <c r="K15" s="57">
         <f>SUM($J$5:J15)</f>
         <v>147</v>
       </c>
@@ -4938,7 +4938,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="58">
         <f>SUM($J$5:J16)</f>
         <v>178</v>
       </c>
@@ -4972,7 +4972,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K17" s="68">
+      <c r="K17" s="57">
         <f>SUM($J$5:J17)</f>
         <v>190</v>
       </c>
@@ -4986,11 +4986,11 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="E18" s="29" t="s">
         <v>168</v>
       </c>
@@ -5011,7 +5011,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="58">
         <f>SUM($J$5:J18)</f>
         <v>202</v>
       </c>
@@ -5055,7 +5055,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K19" s="68">
+      <c r="K19" s="57">
         <f>SUM($J$5:J19)</f>
         <v>220</v>
       </c>
@@ -5099,7 +5099,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="58">
         <f>SUM($J$5:J20)</f>
         <v>244</v>
       </c>
@@ -5143,7 +5143,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K21" s="68">
+      <c r="K21" s="57">
         <f>SUM($J$5:J21)</f>
         <v>265</v>
       </c>
@@ -5187,7 +5187,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K22" s="58">
         <f>SUM($J$5:J22)</f>
         <v>270</v>
       </c>
@@ -5231,7 +5231,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K23" s="68">
+      <c r="K23" s="57">
         <f>SUM($J$5:J23)</f>
         <v>283</v>
       </c>
@@ -5275,7 +5275,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K24" s="69">
+      <c r="K24" s="58">
         <f>SUM($J$5:J24)</f>
         <v>305</v>
       </c>
@@ -5319,7 +5319,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="K25" s="68">
+      <c r="K25" s="57">
         <f>SUM($J$5:J25)</f>
         <v>338</v>
       </c>
@@ -5353,7 +5353,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K26" s="69">
+      <c r="K26" s="58">
         <f>SUM($J$5:J26)</f>
         <v>374</v>
       </c>
@@ -5367,11 +5367,11 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
       <c r="E27" s="30" t="s">
         <v>177</v>
       </c>
@@ -5392,7 +5392,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K27" s="68">
+      <c r="K27" s="57">
         <f>SUM($J$5:J27)</f>
         <v>395</v>
       </c>
@@ -5435,7 +5435,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K28" s="69">
+      <c r="K28" s="58">
         <f>SUM($J$5:J28)</f>
         <v>401</v>
       </c>
@@ -5479,7 +5479,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K29" s="68">
+      <c r="K29" s="57">
         <f>SUM($J$5:J29)</f>
         <v>406</v>
       </c>
@@ -5496,7 +5496,7 @@
       <c r="A30" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="70">
+      <c r="B30" s="59">
         <f>B29/B8</f>
         <v>0.86301369863013699</v>
       </c>
@@ -5520,7 +5520,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K30" s="69">
+      <c r="K30" s="58">
         <f>SUM($J$5:J30)</f>
         <v>427</v>
       </c>
@@ -5554,7 +5554,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K31" s="68">
+      <c r="K31" s="57">
         <f>SUM($J$5:J31)</f>
         <v>443</v>
       </c>
@@ -5588,7 +5588,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K32" s="69">
+      <c r="K32" s="58">
         <f>SUM($J$5:J32)</f>
         <v>464</v>
       </c>
@@ -5622,7 +5622,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K33" s="68">
+      <c r="K33" s="57">
         <f>SUM($J$5:J33)</f>
         <v>481</v>
       </c>
@@ -5656,7 +5656,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K34" s="69">
+      <c r="K34" s="58">
         <f>SUM($J$5:J34)</f>
         <v>502</v>
       </c>
@@ -5690,7 +5690,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K35" s="68">
+      <c r="K35" s="57">
         <f>SUM($J$5:J35)</f>
         <v>521</v>
       </c>
@@ -5724,7 +5724,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K36" s="69">
+      <c r="K36" s="58">
         <f>SUM($J$5:J36)</f>
         <v>527</v>
       </c>
@@ -5758,7 +5758,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K37" s="68">
+      <c r="K37" s="57">
         <f>SUM($J$5:J37)</f>
         <v>539</v>
       </c>
@@ -5792,7 +5792,7 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="K38" s="69">
+      <c r="K38" s="58">
         <f>SUM($J$5:J38)</f>
         <v>586</v>
       </c>
@@ -5826,7 +5826,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K39" s="68">
+      <c r="K39" s="57">
         <f>SUM($J$5:J39)</f>
         <v>602</v>
       </c>
@@ -5860,7 +5860,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K40" s="69">
+      <c r="K40" s="58">
         <f>SUM($J$5:J40)</f>
         <v>605</v>
       </c>
@@ -5894,7 +5894,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K41" s="68">
+      <c r="K41" s="57">
         <f>SUM($J$5:J41)</f>
         <v>621</v>
       </c>
@@ -5928,7 +5928,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K42" s="69">
+      <c r="K42" s="58">
         <f>SUM($J$5:J42)</f>
         <v>669</v>
       </c>
@@ -5962,7 +5962,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K43" s="68">
+      <c r="K43" s="57">
         <f>SUM($J$5:J43)</f>
         <v>673</v>
       </c>
@@ -5996,7 +5996,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="K44" s="69">
+      <c r="K44" s="58">
         <f>SUM($J$5:J44)</f>
         <v>702</v>
       </c>
@@ -6030,7 +6030,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K45" s="68">
+      <c r="K45" s="57">
         <f>SUM($J$5:J45)</f>
         <v>742</v>
       </c>
@@ -6064,7 +6064,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K46" s="69">
+      <c r="K46" s="58">
         <f>SUM($J$5:J46)</f>
         <v>787</v>
       </c>
@@ -6098,7 +6098,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K47" s="68">
+      <c r="K47" s="57">
         <f>SUM($J$5:J47)</f>
         <v>802</v>
       </c>
@@ -6132,7 +6132,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="K48" s="69">
+      <c r="K48" s="58">
         <f>SUM($J$5:J48)</f>
         <v>833</v>
       </c>
@@ -6166,7 +6166,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K49" s="68">
+      <c r="K49" s="57">
         <f>SUM($J$5:J49)</f>
         <v>837</v>
       </c>
@@ -6200,7 +6200,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="K50" s="69">
+      <c r="K50" s="58">
         <f>SUM($J$5:J50)</f>
         <v>880</v>
       </c>
@@ -6234,7 +6234,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K51" s="68">
+      <c r="K51" s="57">
         <f>SUM($J$5:J51)</f>
         <v>887</v>
       </c>
@@ -6268,7 +6268,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K52" s="69">
+      <c r="K52" s="58">
         <f>SUM($J$5:J52)</f>
         <v>890</v>
       </c>
@@ -6302,7 +6302,7 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K53" s="68">
+      <c r="K53" s="57">
         <f>SUM($J$5:J53)</f>
         <v>932</v>
       </c>
@@ -6336,7 +6336,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K54" s="69">
+      <c r="K54" s="58">
         <f>SUM($J$5:J54)</f>
         <v>934</v>
       </c>
@@ -6370,7 +6370,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="K55" s="68">
+      <c r="K55" s="57">
         <f>SUM($J$5:J55)</f>
         <v>968</v>
       </c>
@@ -6404,7 +6404,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K56" s="69">
+      <c r="K56" s="58">
         <f>SUM($J$5:J56)</f>
         <v>980</v>
       </c>
@@ -6438,7 +6438,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K57" s="68">
+      <c r="K57" s="57">
         <f>SUM($J$5:J57)</f>
         <v>996</v>
       </c>
@@ -6472,7 +6472,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="K58" s="69">
+      <c r="K58" s="58">
         <f>SUM($J$5:J58)</f>
         <v>1030</v>
       </c>
@@ -6506,7 +6506,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="K59" s="68">
+      <c r="K59" s="57">
         <f>SUM($J$5:J59)</f>
         <v>1058</v>
       </c>
@@ -6540,7 +6540,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K60" s="69">
+      <c r="K60" s="58">
         <f>SUM($J$5:J60)</f>
         <v>1070</v>
       </c>
@@ -6574,7 +6574,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K61" s="68">
+      <c r="K61" s="57">
         <f>SUM($J$5:J61)</f>
         <v>1089</v>
       </c>
@@ -6608,7 +6608,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K62" s="69">
+      <c r="K62" s="58">
         <f>SUM($J$5:J62)</f>
         <v>1095</v>
       </c>
@@ -6642,7 +6642,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K63" s="68">
+      <c r="K63" s="57">
         <f>SUM($J$5:J63)</f>
         <v>1121</v>
       </c>
@@ -6676,7 +6676,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K64" s="69">
+      <c r="K64" s="58">
         <f>SUM($J$5:J64)</f>
         <v>1127</v>
       </c>
@@ -6710,7 +6710,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K65" s="68">
+      <c r="K65" s="57">
         <f>SUM($J$5:J65)</f>
         <v>1140</v>
       </c>
@@ -6744,7 +6744,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K66" s="69">
+      <c r="K66" s="58">
         <f>SUM($J$5:J66)</f>
         <v>1161</v>
       </c>
@@ -6778,7 +6778,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K67" s="68">
+      <c r="K67" s="57">
         <f>SUM($J$5:J67)</f>
         <v>1175</v>
       </c>
@@ -6812,7 +6812,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K68" s="69">
+      <c r="K68" s="58">
         <f>SUM($J$5:J68)</f>
         <v>1188</v>
       </c>
@@ -6846,7 +6846,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K69" s="68">
+      <c r="K69" s="57">
         <f>SUM($J$5:J69)</f>
         <v>1205</v>
       </c>
@@ -6880,7 +6880,7 @@
         <f t="shared" ref="J70:J133" si="5">ROUNDUP((I70-G70)*24*60,0)</f>
         <v>18</v>
       </c>
-      <c r="K70" s="69">
+      <c r="K70" s="58">
         <f>SUM($J$5:J70)</f>
         <v>1223</v>
       </c>
@@ -6914,7 +6914,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K71" s="68">
+      <c r="K71" s="57">
         <f>SUM($J$5:J71)</f>
         <v>1231</v>
       </c>
@@ -6948,7 +6948,7 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="K72" s="69">
+      <c r="K72" s="58">
         <f>SUM($J$5:J72)</f>
         <v>1247</v>
       </c>
@@ -6982,7 +6982,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="K73" s="68">
+      <c r="K73" s="57">
         <f>SUM($J$5:J73)</f>
         <v>1254</v>
       </c>
@@ -7016,7 +7016,7 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="K74" s="69">
+      <c r="K74" s="58">
         <f>SUM($J$5:J74)</f>
         <v>1272</v>
       </c>
@@ -7050,7 +7050,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K75" s="68">
+      <c r="K75" s="57">
         <f>SUM($J$5:J75)</f>
         <v>1277</v>
       </c>
@@ -7084,7 +7084,7 @@
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="K76" s="69">
+      <c r="K76" s="58">
         <f>SUM($J$5:J76)</f>
         <v>1296</v>
       </c>
@@ -7118,7 +7118,7 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="K77" s="68">
+      <c r="K77" s="57">
         <f>SUM($J$5:J77)</f>
         <v>1310</v>
       </c>
@@ -7152,7 +7152,7 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="K78" s="69">
+      <c r="K78" s="58">
         <f>SUM($J$5:J78)</f>
         <v>1326</v>
       </c>
@@ -7186,7 +7186,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K79" s="68">
+      <c r="K79" s="57">
         <f>SUM($J$5:J79)</f>
         <v>1332</v>
       </c>
@@ -7220,7 +7220,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="K80" s="69">
+      <c r="K80" s="58">
         <f>SUM($J$5:J80)</f>
         <v>1339</v>
       </c>
@@ -7254,7 +7254,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K81" s="68">
+      <c r="K81" s="57">
         <f>SUM($J$5:J81)</f>
         <v>1347</v>
       </c>
@@ -7288,7 +7288,7 @@
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="K82" s="69">
+      <c r="K82" s="58">
         <f>SUM($J$5:J82)</f>
         <v>1380</v>
       </c>
@@ -7322,7 +7322,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K83" s="68">
+      <c r="K83" s="57">
         <f>SUM($J$5:J83)</f>
         <v>1385</v>
       </c>
@@ -7356,7 +7356,7 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="K84" s="69">
+      <c r="K84" s="58">
         <f>SUM($J$5:J84)</f>
         <v>1405</v>
       </c>
@@ -7390,7 +7390,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K85" s="68">
+      <c r="K85" s="57">
         <f>SUM($J$5:J85)</f>
         <v>1408</v>
       </c>
@@ -7424,7 +7424,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="K86" s="69">
+      <c r="K86" s="58">
         <f>SUM($J$5:J86)</f>
         <v>1419</v>
       </c>
@@ -7458,7 +7458,7 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="K87" s="68">
+      <c r="K87" s="57">
         <f>SUM($J$5:J87)</f>
         <v>1435</v>
       </c>
@@ -7492,7 +7492,7 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="K88" s="69">
+      <c r="K88" s="58">
         <f>SUM($J$5:J88)</f>
         <v>1453</v>
       </c>
@@ -7526,7 +7526,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K89" s="68">
+      <c r="K89" s="57">
         <f>SUM($J$5:J89)</f>
         <v>1459</v>
       </c>
@@ -7560,7 +7560,7 @@
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="K90" s="69">
+      <c r="K90" s="58">
         <f>SUM($J$5:J90)</f>
         <v>1478</v>
       </c>
@@ -7594,7 +7594,7 @@
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="K91" s="68">
+      <c r="K91" s="57">
         <f>SUM($J$5:J91)</f>
         <v>1507</v>
       </c>
@@ -7628,7 +7628,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="K92" s="69">
+      <c r="K92" s="58">
         <f>SUM($J$5:J92)</f>
         <v>1516</v>
       </c>
@@ -7662,7 +7662,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K93" s="68">
+      <c r="K93" s="57">
         <f>SUM($J$5:J93)</f>
         <v>1518</v>
       </c>
@@ -7696,7 +7696,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="K94" s="69">
+      <c r="K94" s="58">
         <f>SUM($J$5:J94)</f>
         <v>1525</v>
       </c>
@@ -7730,7 +7730,7 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="K95" s="68">
+      <c r="K95" s="57">
         <f>SUM($J$5:J95)</f>
         <v>1545</v>
       </c>
@@ -7764,7 +7764,7 @@
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="K96" s="69">
+      <c r="K96" s="58">
         <f>SUM($J$5:J96)</f>
         <v>1564</v>
       </c>
@@ -7798,7 +7798,7 @@
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="K97" s="68">
+      <c r="K97" s="57">
         <f>SUM($J$5:J97)</f>
         <v>1613</v>
       </c>
@@ -7832,7 +7832,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K98" s="69">
+      <c r="K98" s="58">
         <f>SUM($J$5:J98)</f>
         <v>1618</v>
       </c>
@@ -7866,7 +7866,7 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="K99" s="68">
+      <c r="K99" s="57">
         <f>SUM($J$5:J99)</f>
         <v>1631</v>
       </c>
@@ -7900,7 +7900,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="K100" s="69">
+      <c r="K100" s="58">
         <f>SUM($J$5:J100)</f>
         <v>1646</v>
       </c>
@@ -7934,7 +7934,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="K101" s="68">
+      <c r="K101" s="57">
         <f>SUM($J$5:J101)</f>
         <v>1653</v>
       </c>
@@ -7968,7 +7968,7 @@
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="K102" s="69">
+      <c r="K102" s="58">
         <f>SUM($J$5:J102)</f>
         <v>1704</v>
       </c>
@@ -8002,7 +8002,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="K103" s="68">
+      <c r="K103" s="57">
         <f>SUM($J$5:J103)</f>
         <v>1713</v>
       </c>
@@ -8036,7 +8036,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K104" s="69">
+      <c r="K104" s="58">
         <f>SUM($J$5:J104)</f>
         <v>1719</v>
       </c>
@@ -8070,7 +8070,7 @@
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="K105" s="68">
+      <c r="K105" s="57">
         <f>SUM($J$5:J105)</f>
         <v>1749</v>
       </c>
@@ -8104,7 +8104,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K106" s="69">
+      <c r="K106" s="58">
         <f>SUM($J$5:J106)</f>
         <v>1755</v>
       </c>
@@ -8138,7 +8138,7 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="K107" s="68">
+      <c r="K107" s="57">
         <f>SUM($J$5:J107)</f>
         <v>1769</v>
       </c>
@@ -8172,7 +8172,7 @@
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="K108" s="69">
+      <c r="K108" s="58">
         <f>SUM($J$5:J108)</f>
         <v>1797</v>
       </c>
@@ -8206,7 +8206,7 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="K109" s="68">
+      <c r="K109" s="57">
         <f>SUM($J$5:J109)</f>
         <v>1810</v>
       </c>
@@ -8240,7 +8240,7 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="K110" s="69">
+      <c r="K110" s="58">
         <f>SUM($J$5:J110)</f>
         <v>1831</v>
       </c>
@@ -8274,7 +8274,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="K111" s="68">
+      <c r="K111" s="57">
         <f>SUM($J$5:J111)</f>
         <v>1840</v>
       </c>
@@ -8308,7 +8308,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K112" s="69">
+      <c r="K112" s="58">
         <f>SUM($J$5:J112)</f>
         <v>1843</v>
       </c>
@@ -8342,7 +8342,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K113" s="68">
+      <c r="K113" s="57">
         <f>SUM($J$5:J113)</f>
         <v>1849</v>
       </c>
@@ -8376,7 +8376,7 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="K114" s="69">
+      <c r="K114" s="58">
         <f>SUM($J$5:J114)</f>
         <v>1862</v>
       </c>
@@ -8410,7 +8410,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K115" s="68">
+      <c r="K115" s="57">
         <f>SUM($J$5:J115)</f>
         <v>1868</v>
       </c>
@@ -8444,7 +8444,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K116" s="69">
+      <c r="K116" s="58">
         <f>SUM($J$5:J116)</f>
         <v>1874</v>
       </c>
@@ -8478,7 +8478,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="K117" s="68">
+      <c r="K117" s="57">
         <f>SUM($J$5:J117)</f>
         <v>1886</v>
       </c>
@@ -8512,7 +8512,7 @@
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="K118" s="69">
+      <c r="K118" s="58">
         <f>SUM($J$5:J118)</f>
         <v>1905</v>
       </c>
@@ -8546,7 +8546,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="K119" s="68">
+      <c r="K119" s="57">
         <f>SUM($J$5:J119)</f>
         <v>1917</v>
       </c>
@@ -8580,7 +8580,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="K120" s="69">
+      <c r="K120" s="58">
         <f>SUM($J$5:J120)</f>
         <v>1926</v>
       </c>
@@ -8614,7 +8614,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="K121" s="68">
+      <c r="K121" s="57">
         <f>SUM($J$5:J121)</f>
         <v>1938</v>
       </c>
@@ -8648,7 +8648,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="K122" s="69">
+      <c r="K122" s="58">
         <f>SUM($J$5:J122)</f>
         <v>1955</v>
       </c>
@@ -8682,7 +8682,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K123" s="68">
+      <c r="K123" s="57">
         <f>SUM($J$5:J123)</f>
         <v>1963</v>
       </c>
@@ -8716,7 +8716,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="K124" s="69">
+      <c r="K124" s="58">
         <f>SUM($J$5:J124)</f>
         <v>1978</v>
       </c>
@@ -8750,7 +8750,7 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="K125" s="68">
+      <c r="K125" s="57">
         <f>SUM($J$5:J125)</f>
         <v>2005</v>
       </c>
@@ -8784,7 +8784,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="K126" s="69">
+      <c r="K126" s="58">
         <f>SUM($J$5:J126)</f>
         <v>2020</v>
       </c>
@@ -8818,7 +8818,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K127" s="68">
+      <c r="K127" s="57">
         <f>SUM($J$5:J127)</f>
         <v>2024</v>
       </c>
@@ -8852,7 +8852,7 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="K128" s="69">
+      <c r="K128" s="58">
         <f>SUM($J$5:J128)</f>
         <v>2044</v>
       </c>
@@ -8886,7 +8886,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="K129" s="68">
+      <c r="K129" s="57">
         <f>SUM($J$5:J129)</f>
         <v>2059</v>
       </c>
@@ -8920,7 +8920,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="K130" s="69">
+      <c r="K130" s="58">
         <f>SUM($J$5:J130)</f>
         <v>2070</v>
       </c>
@@ -8954,7 +8954,7 @@
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="K131" s="68">
+      <c r="K131" s="57">
         <f>SUM($J$5:J131)</f>
         <v>2122</v>
       </c>
@@ -8988,7 +8988,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="K132" s="69">
+      <c r="K132" s="58">
         <f>SUM($J$5:J132)</f>
         <v>2139</v>
       </c>
@@ -9022,7 +9022,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K133" s="68">
+      <c r="K133" s="57">
         <f>SUM($J$5:J133)</f>
         <v>2144</v>
       </c>
@@ -9056,7 +9056,7 @@
         <f t="shared" ref="J134:J197" si="9">ROUNDUP((I134-G134)*24*60,0)</f>
         <v>20</v>
       </c>
-      <c r="K134" s="69">
+      <c r="K134" s="58">
         <f>SUM($J$5:J134)</f>
         <v>2164</v>
       </c>
@@ -9090,7 +9090,7 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="K135" s="68">
+      <c r="K135" s="57">
         <f>SUM($J$5:J135)</f>
         <v>2175</v>
       </c>
@@ -9124,7 +9124,7 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="K136" s="69">
+      <c r="K136" s="58">
         <f>SUM($J$5:J136)</f>
         <v>2188</v>
       </c>
@@ -9158,7 +9158,7 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="K137" s="68">
+      <c r="K137" s="57">
         <f>SUM($J$5:J137)</f>
         <v>2192</v>
       </c>
@@ -9192,7 +9192,7 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="K138" s="69">
+      <c r="K138" s="58">
         <f>SUM($J$5:J138)</f>
         <v>2203</v>
       </c>
@@ -9226,7 +9226,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="K139" s="68">
+      <c r="K139" s="57">
         <f>SUM($J$5:J139)</f>
         <v>2205</v>
       </c>
@@ -9260,7 +9260,7 @@
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
-      <c r="K140" s="69">
+      <c r="K140" s="58">
         <f>SUM($J$5:J140)</f>
         <v>2251</v>
       </c>
@@ -9294,7 +9294,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="K141" s="68">
+      <c r="K141" s="57">
         <f>SUM($J$5:J141)</f>
         <v>2257</v>
       </c>
@@ -9328,7 +9328,7 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="K142" s="69">
+      <c r="K142" s="58">
         <f>SUM($J$5:J142)</f>
         <v>2268</v>
       </c>
@@ -9362,7 +9362,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="K143" s="68">
+      <c r="K143" s="57">
         <f>SUM($J$5:J143)</f>
         <v>2274</v>
       </c>
@@ -9396,7 +9396,7 @@
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="K144" s="69">
+      <c r="K144" s="58">
         <f>SUM($J$5:J144)</f>
         <v>2337</v>
       </c>
@@ -9430,7 +9430,7 @@
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="K145" s="68">
+      <c r="K145" s="57">
         <f>SUM($J$5:J145)</f>
         <v>2360</v>
       </c>
@@ -9464,7 +9464,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="K146" s="69">
+      <c r="K146" s="58">
         <f>SUM($J$5:J146)</f>
         <v>2366</v>
       </c>
@@ -9498,7 +9498,7 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="K147" s="68">
+      <c r="K147" s="57">
         <f>SUM($J$5:J147)</f>
         <v>2375</v>
       </c>
@@ -9532,7 +9532,7 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="K148" s="69">
+      <c r="K148" s="58">
         <f>SUM($J$5:J148)</f>
         <v>2378</v>
       </c>
@@ -9566,7 +9566,7 @@
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="K149" s="68">
+      <c r="K149" s="57">
         <f>SUM($J$5:J149)</f>
         <v>2401</v>
       </c>
@@ -9600,7 +9600,7 @@
         <f t="shared" si="9"/>
         <v>62</v>
       </c>
-      <c r="K150" s="69">
+      <c r="K150" s="58">
         <f>SUM($J$5:J150)</f>
         <v>2463</v>
       </c>
@@ -9634,7 +9634,7 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="K151" s="68">
+      <c r="K151" s="57">
         <f>SUM($J$5:J151)</f>
         <v>2471</v>
       </c>
@@ -9668,7 +9668,7 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="K152" s="69">
+      <c r="K152" s="58">
         <f>SUM($J$5:J152)</f>
         <v>2479</v>
       </c>
@@ -9702,7 +9702,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="K153" s="68">
+      <c r="K153" s="57">
         <f>SUM($J$5:J153)</f>
         <v>2484</v>
       </c>
@@ -9736,7 +9736,7 @@
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="K154" s="69">
+      <c r="K154" s="58">
         <f>SUM($J$5:J154)</f>
         <v>2496</v>
       </c>
@@ -9770,7 +9770,7 @@
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="K155" s="68">
+      <c r="K155" s="57">
         <f>SUM($J$5:J155)</f>
         <v>2512</v>
       </c>
@@ -9804,7 +9804,7 @@
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="K156" s="69">
+      <c r="K156" s="58">
         <f>SUM($J$5:J156)</f>
         <v>2530</v>
       </c>
@@ -9838,7 +9838,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="K157" s="68">
+      <c r="K157" s="57">
         <f>SUM($J$5:J157)</f>
         <v>2535</v>
       </c>
@@ -9872,7 +9872,7 @@
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="K158" s="69">
+      <c r="K158" s="58">
         <f>SUM($J$5:J158)</f>
         <v>2551</v>
       </c>
@@ -9906,7 +9906,7 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="K159" s="68">
+      <c r="K159" s="57">
         <f>SUM($J$5:J159)</f>
         <v>2561</v>
       </c>
@@ -9940,7 +9940,7 @@
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="K160" s="69">
+      <c r="K160" s="58">
         <f>SUM($J$5:J160)</f>
         <v>2579</v>
       </c>
@@ -9974,7 +9974,7 @@
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="K161" s="68">
+      <c r="K161" s="57">
         <f>SUM($J$5:J161)</f>
         <v>2608</v>
       </c>
@@ -10008,7 +10008,7 @@
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="K162" s="69">
+      <c r="K162" s="58">
         <f>SUM($J$5:J162)</f>
         <v>2623</v>
       </c>
@@ -10042,7 +10042,7 @@
         <f t="shared" si="9"/>
         <v>44</v>
       </c>
-      <c r="K163" s="68">
+      <c r="K163" s="57">
         <f>SUM($J$5:J163)</f>
         <v>2667</v>
       </c>
@@ -10076,7 +10076,7 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="K164" s="69">
+      <c r="K164" s="58">
         <f>SUM($J$5:J164)</f>
         <v>2677</v>
       </c>
@@ -10110,7 +10110,7 @@
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="K165" s="68">
+      <c r="K165" s="57">
         <f>SUM($J$5:J165)</f>
         <v>2700</v>
       </c>
@@ -10144,7 +10144,7 @@
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="K166" s="69">
+      <c r="K166" s="58">
         <f>SUM($J$5:J166)</f>
         <v>2727</v>
       </c>
@@ -10178,7 +10178,7 @@
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="K167" s="68">
+      <c r="K167" s="57">
         <f>SUM($J$5:J167)</f>
         <v>2739</v>
       </c>
@@ -10212,7 +10212,7 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="K168" s="69">
+      <c r="K168" s="58">
         <f>SUM($J$5:J168)</f>
         <v>2752</v>
       </c>
@@ -10246,7 +10246,7 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="K169" s="68">
+      <c r="K169" s="57">
         <f>SUM($J$5:J169)</f>
         <v>2759</v>
       </c>
@@ -10280,7 +10280,7 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="K170" s="69">
+      <c r="K170" s="58">
         <f>SUM($J$5:J170)</f>
         <v>2767</v>
       </c>
@@ -10314,7 +10314,7 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="K171" s="68">
+      <c r="K171" s="57">
         <f>SUM($J$5:J171)</f>
         <v>2775</v>
       </c>
@@ -10348,7 +10348,7 @@
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="K172" s="69">
+      <c r="K172" s="58">
         <f>SUM($J$5:J172)</f>
         <v>2787</v>
       </c>
@@ -10382,7 +10382,7 @@
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="K173" s="68">
+      <c r="K173" s="57">
         <f>SUM($J$5:J173)</f>
         <v>2809</v>
       </c>
@@ -10416,7 +10416,7 @@
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="K174" s="69">
+      <c r="K174" s="58">
         <f>SUM($J$5:J174)</f>
         <v>2832</v>
       </c>
@@ -10450,7 +10450,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="K175" s="68">
+      <c r="K175" s="57">
         <f>SUM($J$5:J175)</f>
         <v>2834</v>
       </c>
@@ -10484,7 +10484,7 @@
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="K176" s="69">
+      <c r="K176" s="58">
         <f>SUM($J$5:J176)</f>
         <v>2853</v>
       </c>
@@ -10518,7 +10518,7 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="K177" s="68">
+      <c r="K177" s="57">
         <f>SUM($J$5:J177)</f>
         <v>2862</v>
       </c>
@@ -10552,7 +10552,7 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="K178" s="69">
+      <c r="K178" s="58">
         <f>SUM($J$5:J178)</f>
         <v>2901</v>
       </c>
@@ -10586,7 +10586,7 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="K179" s="68">
+      <c r="K179" s="57">
         <f>SUM($J$5:J179)</f>
         <v>2908</v>
       </c>
@@ -10620,7 +10620,7 @@
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
-      <c r="K180" s="69">
+      <c r="K180" s="58">
         <f>SUM($J$5:J180)</f>
         <v>2954</v>
       </c>
@@ -10654,7 +10654,7 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="K181" s="68">
+      <c r="K181" s="57">
         <f>SUM($J$5:J181)</f>
         <v>2965</v>
       </c>
@@ -10688,7 +10688,7 @@
         <f t="shared" si="9"/>
         <v>45</v>
       </c>
-      <c r="K182" s="69">
+      <c r="K182" s="58">
         <f>SUM($J$5:J182)</f>
         <v>3010</v>
       </c>
@@ -10722,7 +10722,7 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="K183" s="68">
+      <c r="K183" s="57">
         <f>SUM($J$5:J183)</f>
         <v>3019</v>
       </c>
@@ -10756,7 +10756,7 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="K184" s="69">
+      <c r="K184" s="58">
         <f>SUM($J$5:J184)</f>
         <v>3056</v>
       </c>
@@ -10790,7 +10790,7 @@
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="K185" s="68">
+      <c r="K185" s="57">
         <f>SUM($J$5:J185)</f>
         <v>3073</v>
       </c>
@@ -10824,7 +10824,7 @@
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="K186" s="69">
+      <c r="K186" s="58">
         <f>SUM($J$5:J186)</f>
         <v>3092</v>
       </c>
@@ -10858,7 +10858,7 @@
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="K187" s="68">
+      <c r="K187" s="57">
         <f>SUM($J$5:J187)</f>
         <v>3106</v>
       </c>
@@ -10892,7 +10892,7 @@
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="K188" s="69">
+      <c r="K188" s="58">
         <f>SUM($J$5:J188)</f>
         <v>3131</v>
       </c>
@@ -10926,7 +10926,7 @@
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="K189" s="68">
+      <c r="K189" s="57">
         <f>SUM($J$5:J189)</f>
         <v>3161</v>
       </c>
@@ -10960,7 +10960,7 @@
         <f t="shared" si="9"/>
         <v>33</v>
       </c>
-      <c r="K190" s="69">
+      <c r="K190" s="58">
         <f>SUM($J$5:J190)</f>
         <v>3194</v>
       </c>
@@ -10994,7 +10994,7 @@
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="K191" s="68">
+      <c r="K191" s="57">
         <f>SUM($J$5:J191)</f>
         <v>3208</v>
       </c>
@@ -11028,7 +11028,7 @@
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="K192" s="69">
+      <c r="K192" s="58">
         <f>SUM($J$5:J192)</f>
         <v>3225</v>
       </c>
@@ -11062,7 +11062,7 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="K193" s="68">
+      <c r="K193" s="57">
         <f>SUM($J$5:J193)</f>
         <v>3236</v>
       </c>
@@ -11096,7 +11096,7 @@
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="K194" s="69">
+      <c r="K194" s="58">
         <f>SUM($J$5:J194)</f>
         <v>3257</v>
       </c>
@@ -11130,7 +11130,7 @@
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="K195" s="68">
+      <c r="K195" s="57">
         <f>SUM($J$5:J195)</f>
         <v>3273</v>
       </c>
@@ -11164,7 +11164,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="K196" s="69">
+      <c r="K196" s="58">
         <f>SUM($J$5:J196)</f>
         <v>3275</v>
       </c>
@@ -11198,7 +11198,7 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="K197" s="68">
+      <c r="K197" s="57">
         <f>SUM($J$5:J197)</f>
         <v>3283</v>
       </c>
@@ -11232,7 +11232,7 @@
         <f t="shared" ref="J198:J261" si="13">ROUNDUP((I198-G198)*24*60,0)</f>
         <v>14</v>
       </c>
-      <c r="K198" s="69">
+      <c r="K198" s="58">
         <f>SUM($J$5:J198)</f>
         <v>3297</v>
       </c>
@@ -11266,7 +11266,7 @@
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="K199" s="68">
+      <c r="K199" s="57">
         <f>SUM($J$5:J199)</f>
         <v>3301</v>
       </c>
@@ -11300,7 +11300,7 @@
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="K200" s="69">
+      <c r="K200" s="58">
         <f>SUM($J$5:J200)</f>
         <v>3307</v>
       </c>
@@ -11334,7 +11334,7 @@
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="K201" s="68">
+      <c r="K201" s="57">
         <f>SUM($J$5:J201)</f>
         <v>3320</v>
       </c>
@@ -11368,7 +11368,7 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="K202" s="69">
+      <c r="K202" s="58">
         <f>SUM($J$5:J202)</f>
         <v>3329</v>
       </c>
@@ -11402,7 +11402,7 @@
         <f t="shared" si="13"/>
         <v>36</v>
       </c>
-      <c r="K203" s="68">
+      <c r="K203" s="57">
         <f>SUM($J$5:J203)</f>
         <v>3365</v>
       </c>
@@ -11436,7 +11436,7 @@
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="K204" s="69">
+      <c r="K204" s="58">
         <f>SUM($J$5:J204)</f>
         <v>3379</v>
       </c>
@@ -11470,7 +11470,7 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="K205" s="68">
+      <c r="K205" s="57">
         <f>SUM($J$5:J205)</f>
         <v>3388</v>
       </c>
@@ -11504,7 +11504,7 @@
         <f t="shared" si="13"/>
         <v>26</v>
       </c>
-      <c r="K206" s="69">
+      <c r="K206" s="58">
         <f>SUM($J$5:J206)</f>
         <v>3414</v>
       </c>
@@ -11538,7 +11538,7 @@
         <f t="shared" si="13"/>
         <v>44</v>
       </c>
-      <c r="K207" s="68">
+      <c r="K207" s="57">
         <f>SUM($J$5:J207)</f>
         <v>3458</v>
       </c>
@@ -11572,7 +11572,7 @@
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="K208" s="69">
+      <c r="K208" s="58">
         <f>SUM($J$5:J208)</f>
         <v>3461</v>
       </c>
@@ -11606,7 +11606,7 @@
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="K209" s="68">
+      <c r="K209" s="57">
         <f>SUM($J$5:J209)</f>
         <v>3468</v>
       </c>
@@ -11640,7 +11640,7 @@
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="K210" s="69">
+      <c r="K210" s="58">
         <f>SUM($J$5:J210)</f>
         <v>3478</v>
       </c>
@@ -11674,7 +11674,7 @@
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="K211" s="68">
+      <c r="K211" s="57">
         <f>SUM($J$5:J211)</f>
         <v>3482</v>
       </c>
@@ -11708,7 +11708,7 @@
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="K212" s="69">
+      <c r="K212" s="58">
         <f>SUM($J$5:J212)</f>
         <v>3493</v>
       </c>
@@ -11742,7 +11742,7 @@
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="K213" s="68">
+      <c r="K213" s="57">
         <f>SUM($J$5:J213)</f>
         <v>3504</v>
       </c>
@@ -11776,7 +11776,7 @@
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="K214" s="69">
+      <c r="K214" s="58">
         <f>SUM($J$5:J214)</f>
         <v>3510</v>
       </c>
@@ -11810,7 +11810,7 @@
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="K215" s="68">
+      <c r="K215" s="57">
         <f>SUM($J$5:J215)</f>
         <v>3515</v>
       </c>
@@ -11844,7 +11844,7 @@
         <f t="shared" si="13"/>
         <v>26</v>
       </c>
-      <c r="K216" s="69">
+      <c r="K216" s="58">
         <f>SUM($J$5:J216)</f>
         <v>3541</v>
       </c>
@@ -11878,7 +11878,7 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="K217" s="68">
+      <c r="K217" s="57">
         <f>SUM($J$5:J217)</f>
         <v>3550</v>
       </c>
@@ -11912,7 +11912,7 @@
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="K218" s="69">
+      <c r="K218" s="58">
         <f>SUM($J$5:J218)</f>
         <v>3555</v>
       </c>
@@ -11946,7 +11946,7 @@
         <f t="shared" si="13"/>
         <v>17</v>
       </c>
-      <c r="K219" s="68">
+      <c r="K219" s="57">
         <f>SUM($J$5:J219)</f>
         <v>3572</v>
       </c>
@@ -11980,7 +11980,7 @@
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="K220" s="69">
+      <c r="K220" s="58">
         <f>SUM($J$5:J220)</f>
         <v>3576</v>
       </c>
@@ -12014,7 +12014,7 @@
         <f t="shared" si="13"/>
         <v>38</v>
       </c>
-      <c r="K221" s="68">
+      <c r="K221" s="57">
         <f>SUM($J$5:J221)</f>
         <v>3614</v>
       </c>
@@ -12048,7 +12048,7 @@
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="K222" s="69">
+      <c r="K222" s="58">
         <f>SUM($J$5:J222)</f>
         <v>3635</v>
       </c>
@@ -12082,7 +12082,7 @@
         <f t="shared" si="13"/>
         <v>18</v>
       </c>
-      <c r="K223" s="68">
+      <c r="K223" s="57">
         <f>SUM($J$5:J223)</f>
         <v>3653</v>
       </c>
@@ -12116,7 +12116,7 @@
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="K224" s="69">
+      <c r="K224" s="58">
         <f>SUM($J$5:J224)</f>
         <v>3673</v>
       </c>
@@ -12150,7 +12150,7 @@
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="K225" s="68">
+      <c r="K225" s="57">
         <f>SUM($J$5:J225)</f>
         <v>3693</v>
       </c>
@@ -12184,7 +12184,7 @@
         <f t="shared" si="13"/>
         <v>17</v>
       </c>
-      <c r="K226" s="69">
+      <c r="K226" s="58">
         <f>SUM($J$5:J226)</f>
         <v>3710</v>
       </c>
@@ -12218,7 +12218,7 @@
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="K227" s="68">
+      <c r="K227" s="57">
         <f>SUM($J$5:J227)</f>
         <v>3715</v>
       </c>
@@ -12252,7 +12252,7 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K228" s="69">
+      <c r="K228" s="58">
         <f>SUM($J$5:J228)</f>
         <v>3717</v>
       </c>
@@ -12286,7 +12286,7 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="K229" s="68">
+      <c r="K229" s="57">
         <f>SUM($J$5:J229)</f>
         <v>3726</v>
       </c>
@@ -12320,7 +12320,7 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="K230" s="69">
+      <c r="K230" s="58">
         <f>SUM($J$5:J230)</f>
         <v>3735</v>
       </c>
@@ -12354,7 +12354,7 @@
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="K231" s="68">
+      <c r="K231" s="57">
         <f>SUM($J$5:J231)</f>
         <v>3745</v>
       </c>
@@ -12388,7 +12388,7 @@
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="K232" s="69">
+      <c r="K232" s="58">
         <f>SUM($J$5:J232)</f>
         <v>3765</v>
       </c>
@@ -12422,7 +12422,7 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K233" s="68">
+      <c r="K233" s="57">
         <f>SUM($J$5:J233)</f>
         <v>3767</v>
       </c>
@@ -12456,7 +12456,7 @@
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="K234" s="69">
+      <c r="K234" s="58">
         <f>SUM($J$5:J234)</f>
         <v>3777</v>
       </c>
@@ -12490,7 +12490,7 @@
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="K235" s="68">
+      <c r="K235" s="57">
         <f>SUM($J$5:J235)</f>
         <v>3780</v>
       </c>
@@ -12524,7 +12524,7 @@
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="K236" s="69">
+      <c r="K236" s="58">
         <f>SUM($J$5:J236)</f>
         <v>3784</v>
       </c>
@@ -12558,7 +12558,7 @@
         <f t="shared" si="13"/>
         <v>35</v>
       </c>
-      <c r="K237" s="68">
+      <c r="K237" s="57">
         <f>SUM($J$5:J237)</f>
         <v>3819</v>
       </c>
@@ -12592,7 +12592,7 @@
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="K238" s="69">
+      <c r="K238" s="58">
         <f>SUM($J$5:J238)</f>
         <v>3835</v>
       </c>
@@ -12626,7 +12626,7 @@
         <f t="shared" si="13"/>
         <v>17</v>
       </c>
-      <c r="K239" s="68">
+      <c r="K239" s="57">
         <f>SUM($J$5:J239)</f>
         <v>3852</v>
       </c>
@@ -12660,7 +12660,7 @@
         <f t="shared" si="13"/>
         <v>18</v>
       </c>
-      <c r="K240" s="69">
+      <c r="K240" s="58">
         <f>SUM($J$5:J240)</f>
         <v>3870</v>
       </c>
@@ -12694,7 +12694,7 @@
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="K241" s="68">
+      <c r="K241" s="57">
         <f>SUM($J$5:J241)</f>
         <v>3882</v>
       </c>
@@ -12728,7 +12728,7 @@
         <f t="shared" si="13"/>
         <v>23</v>
       </c>
-      <c r="K242" s="69">
+      <c r="K242" s="58">
         <f>SUM($J$5:J242)</f>
         <v>3905</v>
       </c>
@@ -12762,7 +12762,7 @@
         <f t="shared" si="13"/>
         <v>17</v>
       </c>
-      <c r="K243" s="68">
+      <c r="K243" s="57">
         <f>SUM($J$5:J243)</f>
         <v>3922</v>
       </c>
@@ -12796,7 +12796,7 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="K244" s="69">
+      <c r="K244" s="58">
         <f>SUM($J$5:J244)</f>
         <v>3931</v>
       </c>
@@ -12830,7 +12830,7 @@
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
-      <c r="K245" s="68">
+      <c r="K245" s="57">
         <f>SUM($J$5:J245)</f>
         <v>3961</v>
       </c>
@@ -12864,7 +12864,7 @@
         <f t="shared" si="13"/>
         <v>24</v>
       </c>
-      <c r="K246" s="69">
+      <c r="K246" s="58">
         <f>SUM($J$5:J246)</f>
         <v>3985</v>
       </c>
@@ -12898,7 +12898,7 @@
         <f t="shared" si="13"/>
         <v>24</v>
       </c>
-      <c r="K247" s="68">
+      <c r="K247" s="57">
         <f>SUM($J$5:J247)</f>
         <v>4009</v>
       </c>
@@ -12932,7 +12932,7 @@
         <f t="shared" si="13"/>
         <v>17</v>
       </c>
-      <c r="K248" s="69">
+      <c r="K248" s="58">
         <f>SUM($J$5:J248)</f>
         <v>4026</v>
       </c>
@@ -12966,7 +12966,7 @@
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="K249" s="68">
+      <c r="K249" s="57">
         <f>SUM($J$5:J249)</f>
         <v>4042</v>
       </c>
@@ -13000,7 +13000,7 @@
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="K250" s="69">
+      <c r="K250" s="58">
         <f>SUM($J$5:J250)</f>
         <v>4062</v>
       </c>
@@ -13034,7 +13034,7 @@
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="K251" s="68">
+      <c r="K251" s="57">
         <f>SUM($J$5:J251)</f>
         <v>4069</v>
       </c>
@@ -13068,7 +13068,7 @@
         <f t="shared" si="13"/>
         <v>24</v>
       </c>
-      <c r="K252" s="69">
+      <c r="K252" s="58">
         <f>SUM($J$5:J252)</f>
         <v>4093</v>
       </c>
@@ -13102,7 +13102,7 @@
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="K253" s="68">
+      <c r="K253" s="57">
         <f>SUM($J$5:J253)</f>
         <v>4105</v>
       </c>
@@ -13136,7 +13136,7 @@
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="K254" s="69">
+      <c r="K254" s="58">
         <f>SUM($J$5:J254)</f>
         <v>4117</v>
       </c>
@@ -13170,7 +13170,7 @@
         <f t="shared" si="13"/>
         <v>29</v>
       </c>
-      <c r="K255" s="68">
+      <c r="K255" s="57">
         <f>SUM($J$5:J255)</f>
         <v>4146</v>
       </c>
@@ -13204,7 +13204,7 @@
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="K256" s="69">
+      <c r="K256" s="58">
         <f>SUM($J$5:J256)</f>
         <v>4160</v>
       </c>
@@ -13238,7 +13238,7 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="K257" s="68">
+      <c r="K257" s="57">
         <f>SUM($J$5:J257)</f>
         <v>4169</v>
       </c>
@@ -13272,7 +13272,7 @@
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="K258" s="69">
+      <c r="K258" s="58">
         <f>SUM($J$5:J258)</f>
         <v>4179</v>
       </c>
@@ -13306,7 +13306,7 @@
         <f t="shared" si="13"/>
         <v>32</v>
       </c>
-      <c r="K259" s="68">
+      <c r="K259" s="57">
         <f>SUM($J$5:J259)</f>
         <v>4211</v>
       </c>
@@ -13340,7 +13340,7 @@
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="K260" s="69">
+      <c r="K260" s="58">
         <f>SUM($J$5:J260)</f>
         <v>4214</v>
       </c>
@@ -13374,7 +13374,7 @@
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="K261" s="68">
+      <c r="K261" s="57">
         <f>SUM($J$5:J261)</f>
         <v>4230</v>
       </c>
@@ -13408,7 +13408,7 @@
         <f t="shared" ref="J262:J325" si="17">ROUNDUP((I262-G262)*24*60,0)</f>
         <v>13</v>
       </c>
-      <c r="K262" s="69">
+      <c r="K262" s="58">
         <f>SUM($J$5:J262)</f>
         <v>4243</v>
       </c>
@@ -13442,7 +13442,7 @@
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="K263" s="68">
+      <c r="K263" s="57">
         <f>SUM($J$5:J263)</f>
         <v>4251</v>
       </c>
@@ -13476,7 +13476,7 @@
         <f t="shared" si="17"/>
         <v>22</v>
       </c>
-      <c r="K264" s="69">
+      <c r="K264" s="58">
         <f>SUM($J$5:J264)</f>
         <v>4273</v>
       </c>
@@ -13510,7 +13510,7 @@
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="K265" s="68">
+      <c r="K265" s="57">
         <f>SUM($J$5:J265)</f>
         <v>4287</v>
       </c>
@@ -13544,7 +13544,7 @@
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="K266" s="69">
+      <c r="K266" s="58">
         <f>SUM($J$5:J266)</f>
         <v>4292</v>
       </c>
@@ -13578,7 +13578,7 @@
         <f t="shared" si="17"/>
         <v>24</v>
       </c>
-      <c r="K267" s="68">
+      <c r="K267" s="57">
         <f>SUM($J$5:J267)</f>
         <v>4316</v>
       </c>
@@ -13612,7 +13612,7 @@
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="K268" s="69">
+      <c r="K268" s="58">
         <f>SUM($J$5:J268)</f>
         <v>4334</v>
       </c>
@@ -13646,7 +13646,7 @@
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="K269" s="68">
+      <c r="K269" s="57">
         <f>SUM($J$5:J269)</f>
         <v>4344</v>
       </c>
@@ -13680,7 +13680,7 @@
         <f t="shared" si="17"/>
         <v>11</v>
       </c>
-      <c r="K270" s="69">
+      <c r="K270" s="58">
         <f>SUM($J$5:J270)</f>
         <v>4355</v>
       </c>
@@ -13714,7 +13714,7 @@
         <f t="shared" si="17"/>
         <v>11</v>
       </c>
-      <c r="K271" s="68">
+      <c r="K271" s="57">
         <f>SUM($J$5:J271)</f>
         <v>4366</v>
       </c>
@@ -13748,7 +13748,7 @@
         <f t="shared" si="17"/>
         <v>26</v>
       </c>
-      <c r="K272" s="69">
+      <c r="K272" s="58">
         <f>SUM($J$5:J272)</f>
         <v>4392</v>
       </c>
@@ -13782,7 +13782,7 @@
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="K273" s="68">
+      <c r="K273" s="57">
         <f>SUM($J$5:J273)</f>
         <v>4395</v>
       </c>
@@ -13816,7 +13816,7 @@
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="K274" s="69">
+      <c r="K274" s="58">
         <f>SUM($J$5:J274)</f>
         <v>4413</v>
       </c>
@@ -13850,7 +13850,7 @@
         <f t="shared" si="17"/>
         <v>20</v>
       </c>
-      <c r="K275" s="68">
+      <c r="K275" s="57">
         <f>SUM($J$5:J275)</f>
         <v>4433</v>
       </c>
@@ -13884,7 +13884,7 @@
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="K276" s="69">
+      <c r="K276" s="58">
         <f>SUM($J$5:J276)</f>
         <v>4441</v>
       </c>
@@ -13918,7 +13918,7 @@
         <f t="shared" si="17"/>
         <v>21</v>
       </c>
-      <c r="K277" s="68">
+      <c r="K277" s="57">
         <f>SUM($J$5:J277)</f>
         <v>4462</v>
       </c>
@@ -13952,7 +13952,7 @@
         <f t="shared" si="17"/>
         <v>21</v>
       </c>
-      <c r="K278" s="69">
+      <c r="K278" s="58">
         <f>SUM($J$5:J278)</f>
         <v>4483</v>
       </c>
@@ -13986,7 +13986,7 @@
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="K279" s="68">
+      <c r="K279" s="57">
         <f>SUM($J$5:J279)</f>
         <v>4493</v>
       </c>
@@ -14020,7 +14020,7 @@
         <f t="shared" si="17"/>
         <v>17</v>
       </c>
-      <c r="K280" s="69">
+      <c r="K280" s="58">
         <f>SUM($J$5:J280)</f>
         <v>4510</v>
       </c>
@@ -14054,7 +14054,7 @@
         <f t="shared" si="17"/>
         <v>15</v>
       </c>
-      <c r="K281" s="68">
+      <c r="K281" s="57">
         <f>SUM($J$5:J281)</f>
         <v>4525</v>
       </c>
@@ -14088,7 +14088,7 @@
         <f t="shared" si="17"/>
         <v>16</v>
       </c>
-      <c r="K282" s="69">
+      <c r="K282" s="58">
         <f>SUM($J$5:J282)</f>
         <v>4541</v>
       </c>
@@ -14122,7 +14122,7 @@
         <f t="shared" si="17"/>
         <v>39</v>
       </c>
-      <c r="K283" s="68">
+      <c r="K283" s="57">
         <f>SUM($J$5:J283)</f>
         <v>4580</v>
       </c>
@@ -14156,7 +14156,7 @@
         <f t="shared" si="17"/>
         <v>11</v>
       </c>
-      <c r="K284" s="69">
+      <c r="K284" s="58">
         <f>SUM($J$5:J284)</f>
         <v>4591</v>
       </c>
@@ -14190,7 +14190,7 @@
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="K285" s="68">
+      <c r="K285" s="57">
         <f>SUM($J$5:J285)</f>
         <v>4601</v>
       </c>
@@ -14224,7 +14224,7 @@
         <f t="shared" si="17"/>
         <v>13</v>
       </c>
-      <c r="K286" s="69">
+      <c r="K286" s="58">
         <f>SUM($J$5:J286)</f>
         <v>4614</v>
       </c>
@@ -14258,7 +14258,7 @@
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="K287" s="68">
+      <c r="K287" s="57">
         <f>SUM($J$5:J287)</f>
         <v>4624</v>
       </c>
@@ -14292,7 +14292,7 @@
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
-      <c r="K288" s="69">
+      <c r="K288" s="58">
         <f>SUM($J$5:J288)</f>
         <v>4633</v>
       </c>
@@ -14326,7 +14326,7 @@
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
-      <c r="K289" s="68">
+      <c r="K289" s="57">
         <f>SUM($J$5:J289)</f>
         <v>4642</v>
       </c>
@@ -14360,7 +14360,7 @@
         <f t="shared" si="17"/>
         <v>22</v>
       </c>
-      <c r="K290" s="69">
+      <c r="K290" s="58">
         <f>SUM($J$5:J290)</f>
         <v>4664</v>
       </c>
@@ -14394,7 +14394,7 @@
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="K291" s="68">
+      <c r="K291" s="57">
         <f>SUM($J$5:J291)</f>
         <v>4674</v>
       </c>
@@ -14428,7 +14428,7 @@
         <f t="shared" si="17"/>
         <v>12</v>
       </c>
-      <c r="K292" s="69">
+      <c r="K292" s="58">
         <f>SUM($J$5:J292)</f>
         <v>4686</v>
       </c>
@@ -14462,7 +14462,7 @@
         <f t="shared" si="17"/>
         <v>11</v>
       </c>
-      <c r="K293" s="68">
+      <c r="K293" s="57">
         <f>SUM($J$5:J293)</f>
         <v>4697</v>
       </c>
@@ -14496,7 +14496,7 @@
         <f t="shared" si="17"/>
         <v>27</v>
       </c>
-      <c r="K294" s="69">
+      <c r="K294" s="58">
         <f>SUM($J$5:J294)</f>
         <v>4724</v>
       </c>
@@ -14530,7 +14530,7 @@
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="K295" s="68">
+      <c r="K295" s="57">
         <f>SUM($J$5:J295)</f>
         <v>4742</v>
       </c>
@@ -14564,7 +14564,7 @@
         <f t="shared" si="17"/>
         <v>11</v>
       </c>
-      <c r="K296" s="69">
+      <c r="K296" s="58">
         <f>SUM($J$5:J296)</f>
         <v>4753</v>
       </c>
@@ -14598,7 +14598,7 @@
         <f t="shared" si="17"/>
         <v>42</v>
       </c>
-      <c r="K297" s="68">
+      <c r="K297" s="57">
         <f>SUM($J$5:J297)</f>
         <v>4795</v>
       </c>
@@ -14632,7 +14632,7 @@
         <f t="shared" si="17"/>
         <v>23</v>
       </c>
-      <c r="K298" s="69">
+      <c r="K298" s="58">
         <f>SUM($J$5:J298)</f>
         <v>4818</v>
       </c>
@@ -14666,7 +14666,7 @@
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="K299" s="68">
+      <c r="K299" s="57">
         <f>SUM($J$5:J299)</f>
         <v>4826</v>
       </c>
@@ -14700,7 +14700,7 @@
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
-      <c r="K300" s="69">
+      <c r="K300" s="58">
         <f>SUM($J$5:J300)</f>
         <v>4835</v>
       </c>
@@ -14734,7 +14734,7 @@
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="K301" s="68">
+      <c r="K301" s="57">
         <f>SUM($J$5:J301)</f>
         <v>4839</v>
       </c>
@@ -14768,7 +14768,7 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="K302" s="69">
+      <c r="K302" s="58">
         <f>SUM($J$5:J302)</f>
         <v>4841</v>
       </c>
@@ -14802,7 +14802,7 @@
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="K303" s="68">
+      <c r="K303" s="57">
         <f>SUM($J$5:J303)</f>
         <v>4849</v>
       </c>
@@ -14836,7 +14836,7 @@
         <f t="shared" si="17"/>
         <v>11</v>
       </c>
-      <c r="K304" s="69">
+      <c r="K304" s="58">
         <f>SUM($J$5:J304)</f>
         <v>4860</v>
       </c>
@@ -14870,7 +14870,7 @@
         <f t="shared" si="17"/>
         <v>26</v>
       </c>
-      <c r="K305" s="68">
+      <c r="K305" s="57">
         <f>SUM($J$5:J305)</f>
         <v>4886</v>
       </c>
@@ -14904,7 +14904,7 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="K306" s="69">
+      <c r="K306" s="58">
         <f>SUM($J$5:J306)</f>
         <v>4892</v>
       </c>
@@ -14938,7 +14938,7 @@
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="K307" s="68">
+      <c r="K307" s="57">
         <f>SUM($J$5:J307)</f>
         <v>4896</v>
       </c>
@@ -14972,7 +14972,7 @@
         <f t="shared" si="17"/>
         <v>23</v>
       </c>
-      <c r="K308" s="69">
+      <c r="K308" s="58">
         <f>SUM($J$5:J308)</f>
         <v>4919</v>
       </c>
@@ -15006,7 +15006,7 @@
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
-      <c r="K309" s="68">
+      <c r="K309" s="57">
         <f>SUM($J$5:J309)</f>
         <v>4948</v>
       </c>
@@ -15040,7 +15040,7 @@
         <f t="shared" si="17"/>
         <v>15</v>
       </c>
-      <c r="K310" s="69">
+      <c r="K310" s="58">
         <f>SUM($J$5:J310)</f>
         <v>4963</v>
       </c>
@@ -15074,7 +15074,7 @@
         <f t="shared" si="17"/>
         <v>42</v>
       </c>
-      <c r="K311" s="68">
+      <c r="K311" s="57">
         <f>SUM($J$5:J311)</f>
         <v>5005</v>
       </c>
@@ -15108,7 +15108,7 @@
         <f t="shared" si="17"/>
         <v>16</v>
       </c>
-      <c r="K312" s="69">
+      <c r="K312" s="58">
         <f>SUM($J$5:J312)</f>
         <v>5021</v>
       </c>
@@ -15142,7 +15142,7 @@
         <f t="shared" si="17"/>
         <v>12</v>
       </c>
-      <c r="K313" s="68">
+      <c r="K313" s="57">
         <f>SUM($J$5:J313)</f>
         <v>5033</v>
       </c>
@@ -15176,7 +15176,7 @@
         <f t="shared" si="17"/>
         <v>26</v>
       </c>
-      <c r="K314" s="69">
+      <c r="K314" s="58">
         <f>SUM($J$5:J314)</f>
         <v>5059</v>
       </c>
@@ -15210,7 +15210,7 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="K315" s="68">
+      <c r="K315" s="57">
         <f>SUM($J$5:J315)</f>
         <v>5065</v>
       </c>
@@ -15244,7 +15244,7 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="K316" s="69">
+      <c r="K316" s="58">
         <f>SUM($J$5:J316)</f>
         <v>5066</v>
       </c>
@@ -15278,7 +15278,7 @@
         <f t="shared" si="17"/>
         <v>12</v>
       </c>
-      <c r="K317" s="68">
+      <c r="K317" s="57">
         <f>SUM($J$5:J317)</f>
         <v>5078</v>
       </c>
@@ -15312,7 +15312,7 @@
         <f t="shared" si="17"/>
         <v>16</v>
       </c>
-      <c r="K318" s="69">
+      <c r="K318" s="58">
         <f>SUM($J$5:J318)</f>
         <v>5094</v>
       </c>
@@ -15346,7 +15346,7 @@
         <f t="shared" si="17"/>
         <v>15</v>
       </c>
-      <c r="K319" s="68">
+      <c r="K319" s="57">
         <f>SUM($J$5:J319)</f>
         <v>5109</v>
       </c>
@@ -15380,7 +15380,7 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="K320" s="69">
+      <c r="K320" s="58">
         <f>SUM($J$5:J320)</f>
         <v>5116</v>
       </c>
@@ -15414,7 +15414,7 @@
         <f t="shared" si="17"/>
         <v>30</v>
       </c>
-      <c r="K321" s="68">
+      <c r="K321" s="57">
         <f>SUM($J$5:J321)</f>
         <v>5146</v>
       </c>
@@ -15448,7 +15448,7 @@
         <f t="shared" si="17"/>
         <v>16</v>
       </c>
-      <c r="K322" s="69">
+      <c r="K322" s="58">
         <f>SUM($J$5:J322)</f>
         <v>5162</v>
       </c>
@@ -15482,7 +15482,7 @@
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="K323" s="68">
+      <c r="K323" s="57">
         <f>SUM($J$5:J323)</f>
         <v>5180</v>
       </c>
@@ -15516,7 +15516,7 @@
         <f t="shared" si="17"/>
         <v>25</v>
       </c>
-      <c r="K324" s="69">
+      <c r="K324" s="58">
         <f>SUM($J$5:J324)</f>
         <v>5205</v>
       </c>
@@ -15550,7 +15550,7 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="K325" s="68">
+      <c r="K325" s="57">
         <f>SUM($J$5:J325)</f>
         <v>5211</v>
       </c>
@@ -15584,7 +15584,7 @@
         <f t="shared" ref="J326:J389" si="21">ROUNDUP((I326-G326)*24*60,0)</f>
         <v>15</v>
       </c>
-      <c r="K326" s="69">
+      <c r="K326" s="58">
         <f>SUM($J$5:J326)</f>
         <v>5226</v>
       </c>
@@ -15618,7 +15618,7 @@
         <f t="shared" si="21"/>
         <v>25</v>
       </c>
-      <c r="K327" s="68">
+      <c r="K327" s="57">
         <f>SUM($J$5:J327)</f>
         <v>5251</v>
       </c>
@@ -15652,7 +15652,7 @@
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="K328" s="69">
+      <c r="K328" s="58">
         <f>SUM($J$5:J328)</f>
         <v>5270</v>
       </c>
@@ -15686,7 +15686,7 @@
         <f t="shared" si="21"/>
         <v>30</v>
       </c>
-      <c r="K329" s="68">
+      <c r="K329" s="57">
         <f>SUM($J$5:J329)</f>
         <v>5300</v>
       </c>
@@ -15720,7 +15720,7 @@
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="K330" s="69">
+      <c r="K330" s="58">
         <f>SUM($J$5:J330)</f>
         <v>5307</v>
       </c>
@@ -15754,7 +15754,7 @@
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="K331" s="68">
+      <c r="K331" s="57">
         <f>SUM($J$5:J331)</f>
         <v>5311</v>
       </c>
@@ -15788,7 +15788,7 @@
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="K332" s="69">
+      <c r="K332" s="58">
         <f>SUM($J$5:J332)</f>
         <v>5343</v>
       </c>
@@ -15822,7 +15822,7 @@
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="K333" s="68">
+      <c r="K333" s="57">
         <f>SUM($J$5:J333)</f>
         <v>5348</v>
       </c>
@@ -15856,7 +15856,7 @@
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="K334" s="69">
+      <c r="K334" s="58">
         <f>SUM($J$5:J334)</f>
         <v>5353</v>
       </c>
@@ -15890,7 +15890,7 @@
         <f t="shared" si="21"/>
         <v>31</v>
       </c>
-      <c r="K335" s="68">
+      <c r="K335" s="57">
         <f>SUM($J$5:J335)</f>
         <v>5384</v>
       </c>
@@ -15924,7 +15924,7 @@
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="K336" s="69">
+      <c r="K336" s="58">
         <f>SUM($J$5:J336)</f>
         <v>5390</v>
       </c>
@@ -15958,7 +15958,7 @@
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="K337" s="68">
+      <c r="K337" s="57">
         <f>SUM($J$5:J337)</f>
         <v>5398</v>
       </c>
@@ -15992,7 +15992,7 @@
         <f t="shared" si="21"/>
         <v>15</v>
       </c>
-      <c r="K338" s="69">
+      <c r="K338" s="58">
         <f>SUM($J$5:J338)</f>
         <v>5413</v>
       </c>
@@ -16026,7 +16026,7 @@
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="K339" s="68">
+      <c r="K339" s="57">
         <f>SUM($J$5:J339)</f>
         <v>5419</v>
       </c>
@@ -16060,7 +16060,7 @@
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="K340" s="69">
+      <c r="K340" s="58">
         <f>SUM($J$5:J340)</f>
         <v>5429</v>
       </c>
@@ -16094,7 +16094,7 @@
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="K341" s="68">
+      <c r="K341" s="57">
         <f>SUM($J$5:J341)</f>
         <v>5436</v>
       </c>
@@ -16128,7 +16128,7 @@
         <f t="shared" si="21"/>
         <v>25</v>
       </c>
-      <c r="K342" s="69">
+      <c r="K342" s="58">
         <f>SUM($J$5:J342)</f>
         <v>5461</v>
       </c>
@@ -16162,7 +16162,7 @@
         <f t="shared" si="21"/>
         <v>14</v>
       </c>
-      <c r="K343" s="68">
+      <c r="K343" s="57">
         <f>SUM($J$5:J343)</f>
         <v>5475</v>
       </c>
@@ -16196,7 +16196,7 @@
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="K344" s="69">
+      <c r="K344" s="58">
         <f>SUM($J$5:J344)</f>
         <v>5493</v>
       </c>
@@ -16230,7 +16230,7 @@
         <f t="shared" si="21"/>
         <v>3</v>
       </c>
-      <c r="K345" s="68">
+      <c r="K345" s="57">
         <f>SUM($J$5:J345)</f>
         <v>5496</v>
       </c>
@@ -16264,7 +16264,7 @@
         <f t="shared" si="21"/>
         <v>41</v>
       </c>
-      <c r="K346" s="69">
+      <c r="K346" s="58">
         <f>SUM($J$5:J346)</f>
         <v>5537</v>
       </c>
@@ -16298,7 +16298,7 @@
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="K347" s="68">
+      <c r="K347" s="57">
         <f>SUM($J$5:J347)</f>
         <v>5543</v>
       </c>
@@ -16332,7 +16332,7 @@
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="K348" s="69">
+      <c r="K348" s="58">
         <f>SUM($J$5:J348)</f>
         <v>5565</v>
       </c>
@@ -16366,7 +16366,7 @@
         <f t="shared" si="21"/>
         <v>23</v>
       </c>
-      <c r="K349" s="68">
+      <c r="K349" s="57">
         <f>SUM($J$5:J349)</f>
         <v>5588</v>
       </c>
@@ -16400,7 +16400,7 @@
         <f t="shared" si="21"/>
         <v>73</v>
       </c>
-      <c r="K350" s="69">
+      <c r="K350" s="58">
         <f>SUM($J$5:J350)</f>
         <v>5661</v>
       </c>
@@ -16434,7 +16434,7 @@
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="K351" s="68">
+      <c r="K351" s="57">
         <f>SUM($J$5:J351)</f>
         <v>5669</v>
       </c>
@@ -16468,7 +16468,7 @@
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="K352" s="69">
+      <c r="K352" s="58">
         <f>SUM($J$5:J352)</f>
         <v>5679</v>
       </c>
@@ -16502,7 +16502,7 @@
         <f t="shared" si="21"/>
         <v>31</v>
       </c>
-      <c r="K353" s="68">
+      <c r="K353" s="57">
         <f>SUM($J$5:J353)</f>
         <v>5710</v>
       </c>
@@ -16536,7 +16536,7 @@
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="K354" s="69">
+      <c r="K354" s="58">
         <f>SUM($J$5:J354)</f>
         <v>5720</v>
       </c>
@@ -16570,7 +16570,7 @@
         <f t="shared" si="21"/>
         <v>11</v>
       </c>
-      <c r="K355" s="68">
+      <c r="K355" s="57">
         <f>SUM($J$5:J355)</f>
         <v>5731</v>
       </c>
@@ -16604,7 +16604,7 @@
         <f t="shared" si="21"/>
         <v>13</v>
       </c>
-      <c r="K356" s="69">
+      <c r="K356" s="58">
         <f>SUM($J$5:J356)</f>
         <v>5744</v>
       </c>
@@ -16638,7 +16638,7 @@
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="K357" s="68">
+      <c r="K357" s="57">
         <f>SUM($J$5:J357)</f>
         <v>5754</v>
       </c>
@@ -16672,7 +16672,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="K358" s="69">
+      <c r="K358" s="58">
         <f>SUM($J$5:J358)</f>
         <v>5766</v>
       </c>
@@ -16706,7 +16706,7 @@
         <f t="shared" si="21"/>
         <v>13</v>
       </c>
-      <c r="K359" s="68">
+      <c r="K359" s="57">
         <f>SUM($J$5:J359)</f>
         <v>5779</v>
       </c>
@@ -16740,7 +16740,7 @@
         <f t="shared" si="21"/>
         <v>3</v>
       </c>
-      <c r="K360" s="69">
+      <c r="K360" s="58">
         <f>SUM($J$5:J360)</f>
         <v>5782</v>
       </c>
@@ -16774,7 +16774,7 @@
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="K361" s="68">
+      <c r="K361" s="57">
         <f>SUM($J$5:J361)</f>
         <v>5787</v>
       </c>
@@ -16808,7 +16808,7 @@
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="K362" s="69">
+      <c r="K362" s="58">
         <f>SUM($J$5:J362)</f>
         <v>5792</v>
       </c>
@@ -16842,7 +16842,7 @@
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="K363" s="68">
+      <c r="K363" s="57">
         <f>SUM($J$5:J363)</f>
         <v>5802</v>
       </c>
@@ -16876,7 +16876,7 @@
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="K364" s="69">
+      <c r="K364" s="58">
         <f>SUM($J$5:J364)</f>
         <v>5806</v>
       </c>
@@ -16910,7 +16910,7 @@
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="K365" s="68">
+      <c r="K365" s="57">
         <f>SUM($J$5:J365)</f>
         <v>5813</v>
       </c>
@@ -16944,7 +16944,7 @@
         <f t="shared" si="21"/>
         <v>15</v>
       </c>
-      <c r="K366" s="69">
+      <c r="K366" s="58">
         <f>SUM($J$5:J366)</f>
         <v>5828</v>
       </c>
@@ -16978,7 +16978,7 @@
         <f t="shared" si="21"/>
         <v>17</v>
       </c>
-      <c r="K367" s="68">
+      <c r="K367" s="57">
         <f>SUM($J$5:J367)</f>
         <v>5845</v>
       </c>
@@ -17012,7 +17012,7 @@
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="K368" s="69">
+      <c r="K368" s="58">
         <f>SUM($J$5:J368)</f>
         <v>5851</v>
       </c>
@@ -17046,7 +17046,7 @@
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="K369" s="68">
+      <c r="K369" s="57">
         <f>SUM($J$5:J369)</f>
         <v>5856</v>
       </c>
@@ -17080,7 +17080,7 @@
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="K370" s="69">
+      <c r="K370" s="58">
         <f>SUM($J$5:J370)</f>
         <v>5866</v>
       </c>
@@ -17114,7 +17114,7 @@
         <f t="shared" si="21"/>
         <v>46</v>
       </c>
-      <c r="K371" s="68">
+      <c r="K371" s="57">
         <f>SUM($J$5:J371)</f>
         <v>5912</v>
       </c>
@@ -17148,7 +17148,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="K372" s="69">
+      <c r="K372" s="58">
         <f>SUM($J$5:J372)</f>
         <v>5924</v>
       </c>
@@ -17182,7 +17182,7 @@
         <f t="shared" si="21"/>
         <v>17</v>
       </c>
-      <c r="K373" s="68">
+      <c r="K373" s="57">
         <f>SUM($J$5:J373)</f>
         <v>5941</v>
       </c>
@@ -17216,7 +17216,7 @@
         <f t="shared" si="21"/>
         <v>13</v>
       </c>
-      <c r="K374" s="69">
+      <c r="K374" s="58">
         <f>SUM($J$5:J374)</f>
         <v>5954</v>
       </c>
@@ -17250,7 +17250,7 @@
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="K375" s="68">
+      <c r="K375" s="57">
         <f>SUM($J$5:J375)</f>
         <v>5964</v>
       </c>
@@ -17284,7 +17284,7 @@
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="K376" s="69">
+      <c r="K376" s="58">
         <f>SUM($J$5:J376)</f>
         <v>5971</v>
       </c>
@@ -17318,7 +17318,7 @@
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="K377" s="68">
+      <c r="K377" s="57">
         <f>SUM($J$5:J377)</f>
         <v>5978</v>
       </c>
@@ -17352,7 +17352,7 @@
         <f t="shared" si="21"/>
         <v>13</v>
       </c>
-      <c r="K378" s="69">
+      <c r="K378" s="58">
         <f>SUM($J$5:J378)</f>
         <v>5991</v>
       </c>
@@ -17386,7 +17386,7 @@
         <f t="shared" si="21"/>
         <v>38</v>
       </c>
-      <c r="K379" s="68">
+      <c r="K379" s="57">
         <f>SUM($J$5:J379)</f>
         <v>6029</v>
       </c>
@@ -17420,7 +17420,7 @@
         <f t="shared" si="21"/>
         <v>17</v>
       </c>
-      <c r="K380" s="69">
+      <c r="K380" s="58">
         <f>SUM($J$5:J380)</f>
         <v>6046</v>
       </c>
@@ -17454,7 +17454,7 @@
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="K381" s="68">
+      <c r="K381" s="57">
         <f>SUM($J$5:J381)</f>
         <v>6068</v>
       </c>
@@ -17488,7 +17488,7 @@
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="K382" s="69">
+      <c r="K382" s="58">
         <f>SUM($J$5:J382)</f>
         <v>6087</v>
       </c>
@@ -17522,7 +17522,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="K383" s="68">
+      <c r="K383" s="57">
         <f>SUM($J$5:J383)</f>
         <v>6099</v>
       </c>
@@ -17556,7 +17556,7 @@
         <f t="shared" si="21"/>
         <v>13</v>
       </c>
-      <c r="K384" s="69">
+      <c r="K384" s="58">
         <f>SUM($J$5:J384)</f>
         <v>6112</v>
       </c>
@@ -17590,7 +17590,7 @@
         <f t="shared" si="21"/>
         <v>17</v>
       </c>
-      <c r="K385" s="68">
+      <c r="K385" s="57">
         <f>SUM($J$5:J385)</f>
         <v>6129</v>
       </c>
@@ -17624,7 +17624,7 @@
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="K386" s="69">
+      <c r="K386" s="58">
         <f>SUM($J$5:J386)</f>
         <v>6139</v>
       </c>
@@ -17658,7 +17658,7 @@
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="K387" s="68">
+      <c r="K387" s="57">
         <f>SUM($J$5:J387)</f>
         <v>6146</v>
       </c>
@@ -17692,7 +17692,7 @@
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="K388" s="69">
+      <c r="K388" s="58">
         <f>SUM($J$5:J388)</f>
         <v>6148</v>
       </c>
@@ -17726,7 +17726,7 @@
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="K389" s="68">
+      <c r="K389" s="57">
         <f>SUM($J$5:J389)</f>
         <v>6153</v>
       </c>
@@ -17760,7 +17760,7 @@
         <f t="shared" ref="J390:J453" si="25">ROUNDUP((I390-G390)*24*60,0)</f>
         <v>4</v>
       </c>
-      <c r="K390" s="69">
+      <c r="K390" s="58">
         <f>SUM($J$5:J390)</f>
         <v>6157</v>
       </c>
@@ -17794,7 +17794,7 @@
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="K391" s="68">
+      <c r="K391" s="57">
         <f>SUM($J$5:J391)</f>
         <v>6163</v>
       </c>
@@ -17828,7 +17828,7 @@
         <f t="shared" si="25"/>
         <v>31</v>
       </c>
-      <c r="K392" s="69">
+      <c r="K392" s="58">
         <f>SUM($J$5:J392)</f>
         <v>6194</v>
       </c>
@@ -17862,7 +17862,7 @@
         <f t="shared" si="25"/>
         <v>17</v>
       </c>
-      <c r="K393" s="68">
+      <c r="K393" s="57">
         <f>SUM($J$5:J393)</f>
         <v>6211</v>
       </c>
@@ -17896,7 +17896,7 @@
         <f t="shared" si="25"/>
         <v>7</v>
       </c>
-      <c r="K394" s="69">
+      <c r="K394" s="58">
         <f>SUM($J$5:J394)</f>
         <v>6218</v>
       </c>
@@ -17930,7 +17930,7 @@
         <f t="shared" si="25"/>
         <v>9</v>
       </c>
-      <c r="K395" s="68">
+      <c r="K395" s="57">
         <f>SUM($J$5:J395)</f>
         <v>6227</v>
       </c>
@@ -17964,7 +17964,7 @@
         <f t="shared" si="25"/>
         <v>11</v>
       </c>
-      <c r="K396" s="69">
+      <c r="K396" s="58">
         <f>SUM($J$5:J396)</f>
         <v>6238</v>
       </c>
@@ -17998,7 +17998,7 @@
         <f t="shared" si="25"/>
         <v>31</v>
       </c>
-      <c r="K397" s="68">
+      <c r="K397" s="57">
         <f>SUM($J$5:J397)</f>
         <v>6269</v>
       </c>
@@ -18032,7 +18032,7 @@
         <f t="shared" si="25"/>
         <v>23</v>
       </c>
-      <c r="K398" s="69">
+      <c r="K398" s="58">
         <f>SUM($J$5:J398)</f>
         <v>6292</v>
       </c>
@@ -18066,7 +18066,7 @@
         <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="K399" s="68">
+      <c r="K399" s="57">
         <f>SUM($J$5:J399)</f>
         <v>6295</v>
       </c>
@@ -18100,7 +18100,7 @@
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="K400" s="69">
+      <c r="K400" s="58">
         <f>SUM($J$5:J400)</f>
         <v>6310</v>
       </c>
@@ -18134,7 +18134,7 @@
         <f t="shared" si="25"/>
         <v>67</v>
       </c>
-      <c r="K401" s="68">
+      <c r="K401" s="57">
         <f>SUM($J$5:J401)</f>
         <v>6377</v>
       </c>
@@ -18168,7 +18168,7 @@
         <f t="shared" si="25"/>
         <v>13</v>
       </c>
-      <c r="K402" s="69">
+      <c r="K402" s="58">
         <f>SUM($J$5:J402)</f>
         <v>6390</v>
       </c>
@@ -18202,7 +18202,7 @@
         <f t="shared" si="25"/>
         <v>29</v>
       </c>
-      <c r="K403" s="68">
+      <c r="K403" s="57">
         <f>SUM($J$5:J403)</f>
         <v>6419</v>
       </c>
@@ -18236,7 +18236,7 @@
         <f t="shared" si="25"/>
         <v>58</v>
       </c>
-      <c r="K404" s="69">
+      <c r="K404" s="58">
         <f>SUM($J$5:J404)</f>
         <v>6477</v>
       </c>
@@ -18270,7 +18270,7 @@
         <f t="shared" si="25"/>
         <v>23</v>
       </c>
-      <c r="K405" s="68">
+      <c r="K405" s="57">
         <f>SUM($J$5:J405)</f>
         <v>6500</v>
       </c>
@@ -18304,7 +18304,7 @@
         <f t="shared" si="25"/>
         <v>7</v>
       </c>
-      <c r="K406" s="69">
+      <c r="K406" s="58">
         <f>SUM($J$5:J406)</f>
         <v>6507</v>
       </c>
@@ -18338,7 +18338,7 @@
         <f t="shared" si="25"/>
         <v>43</v>
       </c>
-      <c r="K407" s="68">
+      <c r="K407" s="57">
         <f>SUM($J$5:J407)</f>
         <v>6550</v>
       </c>
@@ -18372,7 +18372,7 @@
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="K408" s="69">
+      <c r="K408" s="58">
         <f>SUM($J$5:J408)</f>
         <v>6564</v>
       </c>
@@ -18406,7 +18406,7 @@
         <f t="shared" si="25"/>
         <v>11</v>
       </c>
-      <c r="K409" s="68">
+      <c r="K409" s="57">
         <f>SUM($J$5:J409)</f>
         <v>6575</v>
       </c>
@@ -18440,7 +18440,7 @@
         <f t="shared" si="25"/>
         <v>19</v>
       </c>
-      <c r="K410" s="69">
+      <c r="K410" s="58">
         <f>SUM($J$5:J410)</f>
         <v>6594</v>
       </c>
@@ -18474,7 +18474,7 @@
         <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="K411" s="68">
+      <c r="K411" s="57">
         <f>SUM($J$5:J411)</f>
         <v>6602</v>
       </c>
@@ -18508,7 +18508,7 @@
         <f t="shared" si="25"/>
         <v>27</v>
       </c>
-      <c r="K412" s="69">
+      <c r="K412" s="58">
         <f>SUM($J$5:J412)</f>
         <v>6629</v>
       </c>
@@ -18542,7 +18542,7 @@
         <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="K413" s="68">
+      <c r="K413" s="57">
         <f>SUM($J$5:J413)</f>
         <v>6645</v>
       </c>
@@ -18576,7 +18576,7 @@
         <f t="shared" si="25"/>
         <v>17</v>
       </c>
-      <c r="K414" s="69">
+      <c r="K414" s="58">
         <f>SUM($J$5:J414)</f>
         <v>6662</v>
       </c>
@@ -18610,7 +18610,7 @@
         <f t="shared" si="25"/>
         <v>13</v>
       </c>
-      <c r="K415" s="68">
+      <c r="K415" s="57">
         <f>SUM($J$5:J415)</f>
         <v>6675</v>
       </c>
@@ -18644,7 +18644,7 @@
         <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="K416" s="69">
+      <c r="K416" s="58">
         <f>SUM($J$5:J416)</f>
         <v>6679</v>
       </c>
@@ -18678,7 +18678,7 @@
         <f t="shared" si="25"/>
         <v>7</v>
       </c>
-      <c r="K417" s="68">
+      <c r="K417" s="57">
         <f>SUM($J$5:J417)</f>
         <v>6686</v>
       </c>
@@ -18712,7 +18712,7 @@
         <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="K418" s="69">
+      <c r="K418" s="58">
         <f>SUM($J$5:J418)</f>
         <v>6702</v>
       </c>
@@ -18746,7 +18746,7 @@
         <f t="shared" si="25"/>
         <v>43</v>
       </c>
-      <c r="K419" s="68">
+      <c r="K419" s="57">
         <f>SUM($J$5:J419)</f>
         <v>6745</v>
       </c>
@@ -18780,7 +18780,7 @@
         <f t="shared" si="25"/>
         <v>23</v>
       </c>
-      <c r="K420" s="69">
+      <c r="K420" s="58">
         <f>SUM($J$5:J420)</f>
         <v>6768</v>
       </c>
@@ -18814,7 +18814,7 @@
         <f t="shared" si="25"/>
         <v>9</v>
       </c>
-      <c r="K421" s="68">
+      <c r="K421" s="57">
         <f>SUM($J$5:J421)</f>
         <v>6777</v>
       </c>
@@ -18848,7 +18848,7 @@
         <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="K422" s="69">
+      <c r="K422" s="58">
         <f>SUM($J$5:J422)</f>
         <v>6785</v>
       </c>
@@ -18882,7 +18882,7 @@
         <f t="shared" si="25"/>
         <v>22</v>
       </c>
-      <c r="K423" s="68">
+      <c r="K423" s="57">
         <f>SUM($J$5:J423)</f>
         <v>6807</v>
       </c>
@@ -18916,7 +18916,7 @@
         <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="K424" s="69">
+      <c r="K424" s="58">
         <f>SUM($J$5:J424)</f>
         <v>6810</v>
       </c>
@@ -18950,7 +18950,7 @@
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="K425" s="68">
+      <c r="K425" s="57">
         <f>SUM($J$5:J425)</f>
         <v>6816</v>
       </c>
@@ -18984,7 +18984,7 @@
         <f t="shared" si="25"/>
         <v>19</v>
       </c>
-      <c r="K426" s="69">
+      <c r="K426" s="58">
         <f>SUM($J$5:J426)</f>
         <v>6835</v>
       </c>
@@ -19018,7 +19018,7 @@
         <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="K427" s="68">
+      <c r="K427" s="57">
         <f>SUM($J$5:J427)</f>
         <v>6843</v>
       </c>
@@ -19052,7 +19052,7 @@
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="K428" s="69">
+      <c r="K428" s="58">
         <f>SUM($J$5:J428)</f>
         <v>6849</v>
       </c>
@@ -19086,7 +19086,7 @@
         <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="K429" s="68">
+      <c r="K429" s="57">
         <f>SUM($J$5:J429)</f>
         <v>6852</v>
       </c>
@@ -19120,7 +19120,7 @@
         <f t="shared" si="25"/>
         <v>13</v>
       </c>
-      <c r="K430" s="69">
+      <c r="K430" s="58">
         <f>SUM($J$5:J430)</f>
         <v>6865</v>
       </c>
@@ -19154,7 +19154,7 @@
         <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="K431" s="68">
+      <c r="K431" s="57">
         <f>SUM($J$5:J431)</f>
         <v>6868</v>
       </c>
@@ -19188,7 +19188,7 @@
         <f t="shared" si="25"/>
         <v>13</v>
       </c>
-      <c r="K432" s="69">
+      <c r="K432" s="58">
         <f>SUM($J$5:J432)</f>
         <v>6881</v>
       </c>
@@ -19222,7 +19222,7 @@
         <f t="shared" si="25"/>
         <v>12</v>
       </c>
-      <c r="K433" s="68">
+      <c r="K433" s="57">
         <f>SUM($J$5:J433)</f>
         <v>6893</v>
       </c>
@@ -19256,7 +19256,7 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="K434" s="69">
+      <c r="K434" s="58">
         <f>SUM($J$5:J434)</f>
         <v>6913</v>
       </c>
@@ -19290,7 +19290,7 @@
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="K435" s="68">
+      <c r="K435" s="57">
         <f>SUM($J$5:J435)</f>
         <v>6927</v>
       </c>
@@ -19324,7 +19324,7 @@
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="K436" s="69">
+      <c r="K436" s="58">
         <f>SUM($J$5:J436)</f>
         <v>6933</v>
       </c>
@@ -19358,7 +19358,7 @@
         <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="K437" s="68">
+      <c r="K437" s="57">
         <f>SUM($J$5:J437)</f>
         <v>6951</v>
       </c>
@@ -19392,7 +19392,7 @@
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="K438" s="69">
+      <c r="K438" s="58">
         <f>SUM($J$5:J438)</f>
         <v>6977</v>
       </c>
@@ -19426,7 +19426,7 @@
         <f t="shared" si="25"/>
         <v>9</v>
       </c>
-      <c r="K439" s="68">
+      <c r="K439" s="57">
         <f>SUM($J$5:J439)</f>
         <v>6986</v>
       </c>
@@ -19460,7 +19460,7 @@
         <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="K440" s="69">
+      <c r="K440" s="58">
         <f>SUM($J$5:J440)</f>
         <v>7011</v>
       </c>
@@ -19494,7 +19494,7 @@
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="K441" s="68">
+      <c r="K441" s="57">
         <f>SUM($J$5:J441)</f>
         <v>7017</v>
       </c>
@@ -19528,7 +19528,7 @@
         <f t="shared" si="25"/>
         <v>24</v>
       </c>
-      <c r="K442" s="69">
+      <c r="K442" s="58">
         <f>SUM($J$5:J442)</f>
         <v>7041</v>
       </c>
@@ -19562,7 +19562,7 @@
         <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="K443" s="68">
+      <c r="K443" s="57">
         <f>SUM($J$5:J443)</f>
         <v>7044</v>
       </c>
@@ -19596,7 +19596,7 @@
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="K444" s="69">
+      <c r="K444" s="58">
         <f>SUM($J$5:J444)</f>
         <v>7059</v>
       </c>
@@ -19630,7 +19630,7 @@
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="K445" s="68">
+      <c r="K445" s="57">
         <f>SUM($J$5:J445)</f>
         <v>7073</v>
       </c>
@@ -19664,7 +19664,7 @@
         <f t="shared" si="25"/>
         <v>17</v>
       </c>
-      <c r="K446" s="69">
+      <c r="K446" s="58">
         <f>SUM($J$5:J446)</f>
         <v>7090</v>
       </c>
@@ -19698,7 +19698,7 @@
         <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="K447" s="68">
+      <c r="K447" s="57">
         <f>SUM($J$5:J447)</f>
         <v>7098</v>
       </c>
@@ -19732,7 +19732,7 @@
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="K448" s="69">
+      <c r="K448" s="58">
         <f>SUM($J$5:J448)</f>
         <v>7100</v>
       </c>
@@ -19766,7 +19766,7 @@
         <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="K449" s="68">
+      <c r="K449" s="57">
         <f>SUM($J$5:J449)</f>
         <v>7104</v>
       </c>
@@ -19800,7 +19800,7 @@
         <f t="shared" si="25"/>
         <v>12</v>
       </c>
-      <c r="K450" s="69">
+      <c r="K450" s="58">
         <f>SUM($J$5:J450)</f>
         <v>7116</v>
       </c>
@@ -19834,7 +19834,7 @@
         <f t="shared" si="25"/>
         <v>7</v>
       </c>
-      <c r="K451" s="68">
+      <c r="K451" s="57">
         <f>SUM($J$5:J451)</f>
         <v>7123</v>
       </c>
@@ -19868,7 +19868,7 @@
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="K452" s="69">
+      <c r="K452" s="58">
         <f>SUM($J$5:J452)</f>
         <v>7128</v>
       </c>
@@ -19902,7 +19902,7 @@
         <f t="shared" si="25"/>
         <v>13</v>
       </c>
-      <c r="K453" s="68">
+      <c r="K453" s="57">
         <f>SUM($J$5:J453)</f>
         <v>7141</v>
       </c>
@@ -19936,7 +19936,7 @@
         <f t="shared" ref="J454:J515" si="29">ROUNDUP((I454-G454)*24*60,0)</f>
         <v>10</v>
       </c>
-      <c r="K454" s="69">
+      <c r="K454" s="58">
         <f>SUM($J$5:J454)</f>
         <v>7151</v>
       </c>
@@ -19970,7 +19970,7 @@
         <f t="shared" si="29"/>
         <v>7</v>
       </c>
-      <c r="K455" s="68">
+      <c r="K455" s="57">
         <f>SUM($J$5:J455)</f>
         <v>7158</v>
       </c>
@@ -20004,7 +20004,7 @@
         <f t="shared" si="29"/>
         <v>4</v>
       </c>
-      <c r="K456" s="69">
+      <c r="K456" s="58">
         <f>SUM($J$5:J456)</f>
         <v>7162</v>
       </c>
@@ -20038,7 +20038,7 @@
         <f t="shared" si="29"/>
         <v>22</v>
       </c>
-      <c r="K457" s="68">
+      <c r="K457" s="57">
         <f>SUM($J$5:J457)</f>
         <v>7184</v>
       </c>
@@ -20072,7 +20072,7 @@
         <f t="shared" si="29"/>
         <v>24</v>
       </c>
-      <c r="K458" s="69">
+      <c r="K458" s="58">
         <f>SUM($J$5:J458)</f>
         <v>7208</v>
       </c>
@@ -20106,7 +20106,7 @@
         <f t="shared" si="29"/>
         <v>13</v>
       </c>
-      <c r="K459" s="68">
+      <c r="K459" s="57">
         <f>SUM($J$5:J459)</f>
         <v>7221</v>
       </c>
@@ -20140,7 +20140,7 @@
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="K460" s="69">
+      <c r="K460" s="58">
         <f>SUM($J$5:J460)</f>
         <v>7241</v>
       </c>
@@ -20174,7 +20174,7 @@
         <f t="shared" si="29"/>
         <v>26</v>
       </c>
-      <c r="K461" s="68">
+      <c r="K461" s="57">
         <f>SUM($J$5:J461)</f>
         <v>7267</v>
       </c>
@@ -20208,7 +20208,7 @@
         <f t="shared" si="29"/>
         <v>14</v>
       </c>
-      <c r="K462" s="69">
+      <c r="K462" s="58">
         <f>SUM($J$5:J462)</f>
         <v>7281</v>
       </c>
@@ -20242,7 +20242,7 @@
         <f t="shared" si="29"/>
         <v>10</v>
       </c>
-      <c r="K463" s="68">
+      <c r="K463" s="57">
         <f>SUM($J$5:J463)</f>
         <v>7291</v>
       </c>
@@ -20276,7 +20276,7 @@
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="K464" s="69">
+      <c r="K464" s="58">
         <f>SUM($J$5:J464)</f>
         <v>7296</v>
       </c>
@@ -20310,7 +20310,7 @@
         <f t="shared" si="29"/>
         <v>18</v>
       </c>
-      <c r="K465" s="68">
+      <c r="K465" s="57">
         <f>SUM($J$5:J465)</f>
         <v>7314</v>
       </c>
@@ -20344,7 +20344,7 @@
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="K466" s="69">
+      <c r="K466" s="58">
         <f>SUM($J$5:J466)</f>
         <v>7320</v>
       </c>
@@ -20378,7 +20378,7 @@
         <f t="shared" si="29"/>
         <v>7</v>
       </c>
-      <c r="K467" s="68">
+      <c r="K467" s="57">
         <f>SUM($J$5:J467)</f>
         <v>7327</v>
       </c>
@@ -20412,7 +20412,7 @@
         <f t="shared" si="29"/>
         <v>8</v>
       </c>
-      <c r="K468" s="69">
+      <c r="K468" s="58">
         <f>SUM($J$5:J468)</f>
         <v>7335</v>
       </c>
@@ -20446,7 +20446,7 @@
         <f t="shared" si="29"/>
         <v>18</v>
       </c>
-      <c r="K469" s="68">
+      <c r="K469" s="57">
         <f>SUM($J$5:J469)</f>
         <v>7353</v>
       </c>
@@ -20480,7 +20480,7 @@
         <f t="shared" si="29"/>
         <v>11</v>
       </c>
-      <c r="K470" s="69">
+      <c r="K470" s="58">
         <f>SUM($J$5:J470)</f>
         <v>7364</v>
       </c>
@@ -20514,7 +20514,7 @@
         <f t="shared" si="29"/>
         <v>16</v>
       </c>
-      <c r="K471" s="68">
+      <c r="K471" s="57">
         <f>SUM($J$5:J471)</f>
         <v>7380</v>
       </c>
@@ -20548,7 +20548,7 @@
         <f t="shared" si="29"/>
         <v>18</v>
       </c>
-      <c r="K472" s="69">
+      <c r="K472" s="58">
         <f>SUM($J$5:J472)</f>
         <v>7398</v>
       </c>
@@ -20582,7 +20582,7 @@
         <f t="shared" si="29"/>
         <v>32</v>
       </c>
-      <c r="K473" s="68">
+      <c r="K473" s="57">
         <f>SUM($J$5:J473)</f>
         <v>7430</v>
       </c>
@@ -20616,7 +20616,7 @@
         <f t="shared" si="29"/>
         <v>38</v>
       </c>
-      <c r="K474" s="69">
+      <c r="K474" s="58">
         <f>SUM($J$5:J474)</f>
         <v>7468</v>
       </c>
@@ -20650,7 +20650,7 @@
         <f t="shared" si="29"/>
         <v>18</v>
       </c>
-      <c r="K475" s="68">
+      <c r="K475" s="57">
         <f>SUM($J$5:J475)</f>
         <v>7486</v>
       </c>
@@ -20684,7 +20684,7 @@
         <f t="shared" si="29"/>
         <v>36</v>
       </c>
-      <c r="K476" s="69">
+      <c r="K476" s="58">
         <f>SUM($J$5:J476)</f>
         <v>7522</v>
       </c>
@@ -20718,7 +20718,7 @@
         <f t="shared" si="29"/>
         <v>8</v>
       </c>
-      <c r="K477" s="68">
+      <c r="K477" s="57">
         <f>SUM($J$5:J477)</f>
         <v>7530</v>
       </c>
@@ -20752,7 +20752,7 @@
         <f t="shared" si="29"/>
         <v>26</v>
       </c>
-      <c r="K478" s="69">
+      <c r="K478" s="58">
         <f>SUM($J$5:J478)</f>
         <v>7556</v>
       </c>
@@ -20786,7 +20786,7 @@
         <f t="shared" si="29"/>
         <v>25</v>
       </c>
-      <c r="K479" s="68">
+      <c r="K479" s="57">
         <f>SUM($J$5:J479)</f>
         <v>7581</v>
       </c>
@@ -20820,7 +20820,7 @@
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="K480" s="69">
+      <c r="K480" s="58">
         <f>SUM($J$5:J480)</f>
         <v>7587</v>
       </c>
@@ -20854,7 +20854,7 @@
         <f t="shared" si="29"/>
         <v>40</v>
       </c>
-      <c r="K481" s="68">
+      <c r="K481" s="57">
         <f>SUM($J$5:J481)</f>
         <v>7627</v>
       </c>
@@ -20888,7 +20888,7 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="K482" s="69">
+      <c r="K482" s="58">
         <f>SUM($J$5:J482)</f>
         <v>7628</v>
       </c>
@@ -20922,7 +20922,7 @@
         <f t="shared" si="29"/>
         <v>14</v>
       </c>
-      <c r="K483" s="68">
+      <c r="K483" s="57">
         <f>SUM($J$5:J483)</f>
         <v>7642</v>
       </c>
@@ -20956,7 +20956,7 @@
         <f t="shared" si="29"/>
         <v>18</v>
       </c>
-      <c r="K484" s="69">
+      <c r="K484" s="58">
         <f>SUM($J$5:J484)</f>
         <v>7660</v>
       </c>
@@ -20990,7 +20990,7 @@
         <f t="shared" si="29"/>
         <v>19</v>
       </c>
-      <c r="K485" s="68">
+      <c r="K485" s="57">
         <f>SUM($J$5:J485)</f>
         <v>7679</v>
       </c>
@@ -21024,7 +21024,7 @@
         <f t="shared" si="29"/>
         <v>29</v>
       </c>
-      <c r="K486" s="69">
+      <c r="K486" s="58">
         <f>SUM($J$5:J486)</f>
         <v>7708</v>
       </c>
@@ -21058,7 +21058,7 @@
         <f t="shared" si="29"/>
         <v>25</v>
       </c>
-      <c r="K487" s="68">
+      <c r="K487" s="57">
         <f>SUM($J$5:J487)</f>
         <v>7733</v>
       </c>
@@ -21092,7 +21092,7 @@
         <f t="shared" si="29"/>
         <v>13</v>
       </c>
-      <c r="K488" s="69">
+      <c r="K488" s="58">
         <f>SUM($J$5:J488)</f>
         <v>7746</v>
       </c>
@@ -21126,7 +21126,7 @@
         <f t="shared" si="29"/>
         <v>27</v>
       </c>
-      <c r="K489" s="68">
+      <c r="K489" s="57">
         <f>SUM($J$5:J489)</f>
         <v>7773</v>
       </c>
@@ -21160,7 +21160,7 @@
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="K490" s="69">
+      <c r="K490" s="58">
         <f>SUM($J$5:J490)</f>
         <v>7779</v>
       </c>
@@ -21194,7 +21194,7 @@
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="K491" s="68">
+      <c r="K491" s="57">
         <f>SUM($J$5:J491)</f>
         <v>7809</v>
       </c>
@@ -21228,7 +21228,7 @@
         <f t="shared" si="29"/>
         <v>2</v>
       </c>
-      <c r="K492" s="69">
+      <c r="K492" s="58">
         <f>SUM($J$5:J492)</f>
         <v>7811</v>
       </c>
@@ -21262,7 +21262,7 @@
         <f t="shared" si="29"/>
         <v>10</v>
       </c>
-      <c r="K493" s="68">
+      <c r="K493" s="57">
         <f>SUM($J$5:J493)</f>
         <v>7821</v>
       </c>
@@ -21296,7 +21296,7 @@
         <f t="shared" si="29"/>
         <v>11</v>
       </c>
-      <c r="K494" s="69">
+      <c r="K494" s="58">
         <f>SUM($J$5:J494)</f>
         <v>7832</v>
       </c>
@@ -21330,7 +21330,7 @@
         <f t="shared" si="29"/>
         <v>7</v>
       </c>
-      <c r="K495" s="68">
+      <c r="K495" s="57">
         <f>SUM($J$5:J495)</f>
         <v>7839</v>
       </c>
@@ -21364,7 +21364,7 @@
         <f t="shared" si="29"/>
         <v>8</v>
       </c>
-      <c r="K496" s="69">
+      <c r="K496" s="58">
         <f>SUM($J$5:J496)</f>
         <v>7847</v>
       </c>
@@ -21398,7 +21398,7 @@
         <f t="shared" si="29"/>
         <v>9</v>
       </c>
-      <c r="K497" s="68">
+      <c r="K497" s="57">
         <f>SUM($J$5:J497)</f>
         <v>7856</v>
       </c>
@@ -21432,7 +21432,7 @@
         <f t="shared" si="29"/>
         <v>70</v>
       </c>
-      <c r="K498" s="69">
+      <c r="K498" s="58">
         <f>SUM($J$5:J498)</f>
         <v>7926</v>
       </c>
@@ -21466,7 +21466,7 @@
         <f t="shared" si="29"/>
         <v>11</v>
       </c>
-      <c r="K499" s="68">
+      <c r="K499" s="57">
         <f>SUM($J$5:J499)</f>
         <v>7937</v>
       </c>
@@ -21500,7 +21500,7 @@
         <f t="shared" si="29"/>
         <v>14</v>
       </c>
-      <c r="K500" s="69">
+      <c r="K500" s="58">
         <f>SUM($J$5:J500)</f>
         <v>7951</v>
       </c>
@@ -21534,7 +21534,7 @@
         <f t="shared" si="29"/>
         <v>17</v>
       </c>
-      <c r="K501" s="68">
+      <c r="K501" s="57">
         <f>SUM($J$5:J501)</f>
         <v>7968</v>
       </c>
@@ -21568,7 +21568,7 @@
         <f t="shared" si="29"/>
         <v>26</v>
       </c>
-      <c r="K502" s="69">
+      <c r="K502" s="58">
         <f>SUM($J$5:J502)</f>
         <v>7994</v>
       </c>
@@ -21602,7 +21602,7 @@
         <f t="shared" si="29"/>
         <v>14</v>
       </c>
-      <c r="K503" s="68">
+      <c r="K503" s="57">
         <f>SUM($J$5:J503)</f>
         <v>8008</v>
       </c>
@@ -21636,7 +21636,7 @@
         <f t="shared" si="29"/>
         <v>21</v>
       </c>
-      <c r="K504" s="69">
+      <c r="K504" s="58">
         <f>SUM($J$5:J504)</f>
         <v>8029</v>
       </c>
@@ -21670,7 +21670,7 @@
         <f t="shared" si="29"/>
         <v>3</v>
       </c>
-      <c r="K505" s="68">
+      <c r="K505" s="57">
         <f>SUM($J$5:J505)</f>
         <v>8032</v>
       </c>
@@ -21704,7 +21704,7 @@
         <f t="shared" si="29"/>
         <v>19</v>
       </c>
-      <c r="K506" s="69">
+      <c r="K506" s="58">
         <f>SUM($J$5:J506)</f>
         <v>8051</v>
       </c>
@@ -21738,7 +21738,7 @@
         <f t="shared" si="29"/>
         <v>12</v>
       </c>
-      <c r="K507" s="68">
+      <c r="K507" s="57">
         <f>SUM($J$5:J507)</f>
         <v>8063</v>
       </c>
@@ -21772,7 +21772,7 @@
         <f t="shared" si="29"/>
         <v>10</v>
       </c>
-      <c r="K508" s="69">
+      <c r="K508" s="58">
         <f>SUM($J$5:J508)</f>
         <v>8073</v>
       </c>
@@ -21806,7 +21806,7 @@
         <f t="shared" si="29"/>
         <v>38</v>
       </c>
-      <c r="K509" s="68">
+      <c r="K509" s="57">
         <f>SUM($J$5:J509)</f>
         <v>8111</v>
       </c>
@@ -21840,7 +21840,7 @@
         <f t="shared" si="29"/>
         <v>23</v>
       </c>
-      <c r="K510" s="69">
+      <c r="K510" s="58">
         <f>SUM($J$5:J510)</f>
         <v>8134</v>
       </c>
@@ -21874,7 +21874,7 @@
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="K511" s="68">
+      <c r="K511" s="57">
         <f>SUM($J$5:J511)</f>
         <v>8164</v>
       </c>
@@ -21908,7 +21908,7 @@
         <f t="shared" si="29"/>
         <v>7</v>
       </c>
-      <c r="K512" s="69">
+      <c r="K512" s="58">
         <f>SUM($J$5:J512)</f>
         <v>8171</v>
       </c>
@@ -21942,7 +21942,7 @@
         <f t="shared" si="29"/>
         <v>16</v>
       </c>
-      <c r="K513" s="68">
+      <c r="K513" s="57">
         <f>SUM($J$5:J513)</f>
         <v>8187</v>
       </c>
@@ -21976,7 +21976,7 @@
         <f t="shared" si="29"/>
         <v>23</v>
       </c>
-      <c r="K514" s="69">
+      <c r="K514" s="58">
         <f>SUM($J$5:J514)</f>
         <v>8210</v>
       </c>
@@ -22010,7 +22010,7 @@
         <f t="shared" si="29"/>
         <v>45</v>
       </c>
-      <c r="K515" s="68">
+      <c r="K515" s="57">
         <f>SUM($J$5:J515)</f>
         <v>8255</v>
       </c>
@@ -22043,7 +22043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
@@ -22074,19 +22074,19 @@
       <c r="C4" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
       <c r="E5" s="50" t="s">
         <v>127</v>
       </c>
@@ -22104,7 +22104,7 @@
       <c r="A6" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="60">
         <v>50</v>
       </c>
       <c r="C6" s="40" t="s">
@@ -22131,7 +22131,7 @@
       <c r="A7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="60">
         <v>19</v>
       </c>
       <c r="C7" s="40" t="s">
@@ -22158,7 +22158,7 @@
       <c r="A8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="71">
+      <c r="B8" s="60">
         <v>15</v>
       </c>
       <c r="C8" s="40" t="s">
@@ -22185,7 +22185,7 @@
       <c r="A9" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="71">
+      <c r="B9" s="60">
         <v>16</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -22212,7 +22212,7 @@
       <c r="A10" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="61">
         <f>B9/60</f>
         <v>0.26666666666666666</v>
       </c>
@@ -22255,11 +22255,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
       <c r="E12" s="53">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -22281,7 +22281,7 @@
       <c r="A13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="61">
         <f>B6*B10</f>
         <v>13.333333333333334</v>
       </c>
@@ -22309,7 +22309,7 @@
       <c r="A14" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="62">
         <f>B13/B7</f>
         <v>0.70175438596491235</v>
       </c>
@@ -22334,7 +22334,7 @@
       <c r="A15" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="62">
         <f>1-B14</f>
         <v>0.29824561403508765</v>
       </c>
@@ -22374,11 +22374,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
       <c r="E17" s="53">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -22400,7 +22400,7 @@
       <c r="A18" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="74">
+      <c r="B18" s="63">
         <f ca="1">VLOOKUP($B$7,$E$5:$H$32,2,FALSE)</f>
         <v>0.10334049285251216</v>
       </c>
@@ -22426,7 +22426,7 @@
       <c r="A19" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="64">
         <f ca="1">VLOOKUP($B$7, $E$5:$H$32, 3, FALSE)</f>
         <v>17.507095259719708</v>
       </c>
@@ -22454,7 +22454,7 @@
       <c r="A20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="64">
         <f ca="1">B19/60</f>
         <v>0.29178492099532849</v>
       </c>
@@ -22482,7 +22482,7 @@
       <c r="A21" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="74">
+      <c r="B21" s="63">
         <f ca="1">VLOOKUP($B$7, $E$5:$H$55, 4, FALSE)</f>
         <v>9.4583933493561367E-2</v>
       </c>
@@ -22798,11 +22798,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -22873,11 +22873,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
     </row>
     <row r="13" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -22914,11 +22914,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
     </row>
     <row r="18" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -22955,11 +22955,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
     </row>
     <row r="23" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -23043,13 +23043,13 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="66"/>
+      <c r="B4" s="72"/>
     </row>
     <row r="5" spans="1:2" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -23057,13 +23057,13 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="63"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="26" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="70" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -23071,13 +23071,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="63"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="70" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -23085,13 +23085,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="63"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="26" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="70" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -23099,13 +23099,13 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="63"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="26" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="70" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -23113,13 +23113,13 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="63"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="26" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="70" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="24" t="s">
@@ -23127,13 +23127,13 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="63"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="70" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -23141,13 +23141,13 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="63"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="26" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="70" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="24" t="s">
@@ -23155,13 +23155,13 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="63"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="26" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="70" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -23169,7 +23169,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="63"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="26" t="s">
         <v>102</v>
       </c>
@@ -23178,10 +23178,10 @@
       <c r="B23" s="27"/>
     </row>
     <row r="24" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="66"/>
+      <c r="B24" s="72"/>
     </row>
     <row r="25" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
@@ -23216,13 +23216,13 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="66"/>
+      <c r="B30" s="72"/>
     </row>
     <row r="31" spans="1:2" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="68" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -23230,13 +23230,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="63"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="26" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="70" t="s">
         <v>92</v>
       </c>
       <c r="B33" s="24" t="s">
@@ -23244,13 +23244,13 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="63"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="26" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="70" t="s">
         <v>93</v>
       </c>
       <c r="B35" s="24" t="s">
@@ -23258,13 +23258,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="63"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="26" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="71" t="s">
         <v>106</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -23272,13 +23272,13 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="63"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="25" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="70" t="s">
         <v>107</v>
       </c>
       <c r="B39" s="24" t="s">
@@ -23286,11 +23286,11 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="63"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="21"/>
     </row>
     <row r="41" spans="1:2" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="70" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="24" t="s">
@@ -23298,13 +23298,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="63"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="25" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="70" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="24" t="s">
@@ -23312,13 +23312,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="63"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="25" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="71" t="s">
         <v>109</v>
       </c>
       <c r="B45" s="19" t="s">
@@ -23326,20 +23326,20 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="63"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="65"/>
+      <c r="B47" s="75"/>
     </row>
     <row r="49" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="66"/>
+      <c r="B49" s="72"/>
     </row>
     <row r="50" spans="1:2" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
@@ -23350,7 +23350,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="73" t="s">
         <v>112</v>
       </c>
       <c r="B51" s="24" t="s">
@@ -23358,18 +23358,19 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="61"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="25" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:A6"/>
@@ -23382,12 +23383,11 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
